--- a/help/marketo/getting-started/inheriting-a-marketo-engage-instance/assets/adobe-marketo-engage-inherited-instance-admin-checklist.xlsx
+++ b/help/marketo/getting-started/inheriting-a-marketo-engage-instance/assets/adobe-marketo-engage-inherited-instance-admin-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27318"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adobe-my.sharepoint.com/personal/achiu_adobe_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adobe.sharepoint.com/sites/dx-customer-marketing-adoption-retention/Shared Documents/TEAM USE - Adoption Programs/Adobe Marketo Engage Programs/Experience League/Inherited Instance/Documentation/Downloadable Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F0492E7-938B-4B05-87A3-25991708C257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00770D51-7F57-4E60-8C26-7148DE3F78F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="27320" windowHeight="14860" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" Summary - Tasks in Progress" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="412">
   <si>
     <t>Task</t>
   </si>
@@ -566,6 +566,64 @@
   <si>
     <t>• Are you hitting or close to hitting your API limit?
 - If so, consider increasing it or auditing your instance to bring those API calls down.</t>
+  </si>
+  <si>
+    <t>Adobe Dynamic Chat (if applicable)</t>
+  </si>
+  <si>
+    <t>☛NOTE: Following the steps below will require access to the Adobe Admin Console. If you haven't set up an Adobe ID yet, learn how to do that by referencing the 'resources' column.</t>
+  </si>
+  <si>
+    <t>Adobe Admin Console</t>
+  </si>
+  <si>
+    <t>• Have you accepted the Dynamic Chat Product Admin invite? The email is sent when Dynamic Chat is enabled in your Marketo Engage instance, and you're designated as a System Admin.
+- If not, look for the welcome email in your inbox and accept the invitation to set up your Adobe ID.</t>
+  </si>
+  <si>
+    <t>Create or update your Adobe account</t>
+  </si>
+  <si>
+    <t>• Have you added the desired users to the Dynamic Chat product profile in Adobe Admin Console?</t>
+  </si>
+  <si>
+    <t>Dynamic Chat Product Admin</t>
+  </si>
+  <si>
+    <t>• Make sure your eligible users have the Dynamic Chat Product Profile added to their Adobe Identity. You cannot assign 'Access Dynamic Chat' roles in Marketo Engage &gt; Admin &gt; Users &amp; Roles if they're added to a Product Profile.</t>
+  </si>
+  <si>
+    <t>Add or Remove Chat Users</t>
+  </si>
+  <si>
+    <t>• In the 'Product Profiles' tab, are the Default Profile Permissions aligned with your organization's needs?
+- If not, edit the permissions for the specific profile.</t>
+  </si>
+  <si>
+    <t>• If you have more than one subscription, are your users being added to the correct subscriptions?</t>
+  </si>
+  <si>
+    <t>Once you finish auditing the Users &amp; Roles settings, log in to Dynamic Chat to continue your audit.</t>
+  </si>
+  <si>
+    <t>• Have you connected your Marketo Engage instance to Dynamic Chat?</t>
+  </si>
+  <si>
+    <t>Connecting Dynamic Chat</t>
+  </si>
+  <si>
+    <t>• Are the five default profiles with predefined permissions applicable to your organization?
+- If not, you can edit them in Dynamic Chat. You can also create a Custom Profile with a custom set of permissions.</t>
+  </si>
+  <si>
+    <t>Edit Existing Permissions</t>
+  </si>
+  <si>
+    <t>• To provide your users with access to Dynamic Chat, have you checked "Access Dynamic Chat" to the applicable Marketo Engage Role under Admin &gt; Users &amp; Roles &gt; Roles?
+☛NOTE: The 'Admin' &amp; 'Marketing User' roles should have access to Dynamic Chat.</t>
+  </si>
+  <si>
+    <t>Create a Profile</t>
   </si>
   <si>
     <t>Marketo Sales Insight (if applicable)</t>
@@ -1294,35 +1352,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -1332,49 +1366,68 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="10"/>
-      <color theme="4"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color theme="0"/>
+      <name val="AdobeClean-Regular"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="4"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color rgb="FF000000"/>
+      <name val="AdobeClean-Regular"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color theme="1"/>
+      <name val="AdobeClean-Regular"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="AdobeClean-Regular"/>
     </font>
     <font>
+      <u/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color theme="10"/>
+      <name val="AdobeClean-Regular"/>
     </font>
     <font>
+      <u/>
       <sz val="10"/>
-      <color theme="0" tint="-0.34998626667073579"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color theme="4"/>
+      <name val="AdobeClean-Regular"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="AdobeClean-Regular"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="AdobeClean-Regular"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="AdobeClean-Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="AdobeClean-Regular"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="AdobeClean-Regular"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="AdobeClean-Regular"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1420,145 +1473,157 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1810,123 +1875,123 @@
   </sheetPr>
   <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="7"/>
-    <col min="6" max="6" width="10.140625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="50.7109375" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="14.42578125" style="7"/>
+    <col min="1" max="1" width="50.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="2"/>
+    <col min="6" max="6" width="10.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="50.7109375" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28" t="s">
+      <c r="F3" s="44"/>
+      <c r="G3" s="44" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28" t="s">
+      <c r="F4" s="44"/>
+      <c r="G4" s="44" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1952,1682 +2017,1769 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AE139"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScale="190" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="53" style="7" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="7" customWidth="1"/>
-    <col min="10" max="10" width="25" style="7" customWidth="1"/>
-    <col min="11" max="11" width="34.28515625" style="13" customWidth="1"/>
-    <col min="12" max="16384" width="14.42578125" style="7"/>
+    <col min="1" max="1" width="31.28515625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="53" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="34.28515625" style="25" customWidth="1"/>
+    <col min="12" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="12.95">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-    </row>
-    <row r="2" spans="1:31" ht="12.95">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+    </row>
+    <row r="2" spans="1:31" ht="14.1">
+      <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-    </row>
-    <row r="3" spans="1:31" ht="84">
-      <c r="A3" s="50" t="s">
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+    </row>
+    <row r="3" spans="1:31" ht="69.95">
+      <c r="A3" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="40" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="69.95">
-      <c r="A4" s="50"/>
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="1:31" ht="56.1">
+      <c r="A4" s="55"/>
+      <c r="B4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="40" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="126">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:31" ht="111.95">
+      <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="12" t="str">
+      <c r="K5" s="40" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/administration/marketo-with-adobe-identity/add-or-remove-a-user.html","Add or Remove a User in Adobe Admin Console")</f>
         <v>Add or Remove a User in Adobe Admin Console</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="98.1">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:31" ht="69.95">
+      <c r="A6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="40" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="12.95">
-      <c r="A7" s="11"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:31" ht="12.95">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-    </row>
-    <row r="9" spans="1:31" ht="12.95">
-      <c r="A9" s="9" t="s">
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="37"/>
+      <c r="AC8" s="37"/>
+      <c r="AD8" s="37"/>
+      <c r="AE8" s="37"/>
+    </row>
+    <row r="9" spans="1:31" ht="14.1">
+      <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="37"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="37"/>
     </row>
     <row r="10" spans="1:31" ht="12.95">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="37"/>
+      <c r="AB10" s="37"/>
+      <c r="AC10" s="37"/>
+      <c r="AD10" s="37"/>
+      <c r="AE10" s="37"/>
     </row>
     <row r="11" spans="1:31" ht="14.1">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="40" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="14.1">
-      <c r="A12" s="50"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="55"/>
+      <c r="B12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="40" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:31" ht="14.1">
-      <c r="A13" s="50"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="55"/>
+      <c r="B13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="16"/>
+      <c r="K13" s="47"/>
     </row>
     <row r="14" spans="1:31" ht="14.1">
-      <c r="A14" s="50"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="55"/>
+      <c r="B14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="K14" s="40" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="14.1">
-      <c r="A15" s="50"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="55"/>
+      <c r="B15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="40" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:31" ht="14.1">
-      <c r="A16" s="50"/>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="55"/>
+      <c r="B16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="K16" s="40" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="12.95">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="K17" s="16"/>
+      <c r="B17" s="7"/>
+      <c r="K17" s="47"/>
     </row>
     <row r="18" spans="1:11" ht="14.1">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K18" s="12"/>
-    </row>
-    <row r="19" spans="1:11" ht="27.95">
-      <c r="A19" s="50"/>
-      <c r="B19" s="6" t="s">
+      <c r="K18" s="40"/>
+    </row>
+    <row r="19" spans="1:11" ht="14.1">
+      <c r="A19" s="55"/>
+      <c r="B19" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K19" s="12" t="s">
+      <c r="K19" s="40" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.1">
-      <c r="A20" s="50"/>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="55"/>
+      <c r="B20" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K20" s="16"/>
+      <c r="K20" s="47"/>
     </row>
     <row r="21" spans="1:11" ht="14.1">
-      <c r="A21" s="50"/>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="55"/>
+      <c r="B21" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K21" s="12" t="s">
+      <c r="K21" s="40" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="42">
-      <c r="A22" s="50"/>
-      <c r="B22" s="6" t="s">
+    <row r="22" spans="1:11" ht="27.95">
+      <c r="A22" s="55"/>
+      <c r="B22" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K22" s="12" t="s">
+      <c r="K22" s="40" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="69.95">
-      <c r="A23" s="50"/>
-      <c r="B23" s="6" t="s">
+    <row r="23" spans="1:11" ht="56.1">
+      <c r="A23" s="55"/>
+      <c r="B23" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K23" s="12" t="s">
+      <c r="K23" s="40" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="27.95">
-      <c r="A24" s="11" t="s">
+    <row r="24" spans="1:11" ht="14.1">
+      <c r="A24" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K24" s="12" t="s">
+      <c r="K24" s="40" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="14.1">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="14.1">
-      <c r="A26" s="50"/>
-      <c r="B26" s="6" t="s">
+      <c r="A26" s="55"/>
+      <c r="B26" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="27.95">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K27" s="12" t="s">
+      <c r="K27" s="40" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="14.1">
-      <c r="A28" s="50"/>
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="55"/>
+      <c r="B28" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K28" s="12" t="s">
+      <c r="K28" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="12.95">
-      <c r="A30" s="51" t="s">
+      <c r="A30" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-    </row>
-    <row r="31" spans="1:11" ht="12.95">
-      <c r="A31" s="9" t="s">
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+    </row>
+    <row r="31" spans="1:11" ht="14.1">
+      <c r="A31" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J31" s="5" t="s">
+      <c r="J31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K31" s="10" t="s">
+      <c r="K31" s="45" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="27.95">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K32" s="12" t="str">
+      <c r="K32" s="40" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/administration/audit-trail/audit-trail-overview.html#audit-trail-components","Audit Trail Components")</f>
         <v>Audit Trail Components</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="12.95">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="52"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
-    </row>
-    <row r="35" spans="1:12" ht="12.95">
-      <c r="A35" s="9" t="s">
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="54"/>
+    </row>
+    <row r="35" spans="1:12" ht="14.1">
+      <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="I35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J35" s="5" t="s">
+      <c r="J35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K35" s="10" t="s">
+      <c r="K35" s="45" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="14.1">
-      <c r="A36" s="50" t="s">
+      <c r="A36" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K36" s="12" t="s">
+      <c r="K36" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="L36" s="17"/>
+      <c r="L36" s="21"/>
     </row>
     <row r="37" spans="1:12" ht="14.1">
-      <c r="A37" s="50"/>
-      <c r="B37" s="6" t="s">
+      <c r="A37" s="55"/>
+      <c r="B37" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K37" s="12" t="s">
+      <c r="K37" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="L37" s="17"/>
-    </row>
-    <row r="38" spans="1:12" ht="27.95">
-      <c r="A38" s="50"/>
-      <c r="B38" s="6" t="s">
+      <c r="L37" s="21"/>
+    </row>
+    <row r="38" spans="1:12" ht="14.1">
+      <c r="A38" s="55"/>
+      <c r="B38" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K38" s="12" t="s">
+      <c r="K38" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="L38" s="17"/>
-    </row>
-    <row r="39" spans="1:12" ht="27.95">
-      <c r="A39" s="50"/>
-      <c r="B39" s="6" t="s">
+      <c r="L38" s="21"/>
+    </row>
+    <row r="39" spans="1:12" ht="14.1">
+      <c r="A39" s="55"/>
+      <c r="B39" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K39" s="18"/>
-      <c r="L39" s="17"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="21"/>
     </row>
     <row r="40" spans="1:12" ht="14.1">
-      <c r="A40" s="50"/>
-      <c r="B40" s="6" t="s">
+      <c r="A40" s="55"/>
+      <c r="B40" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K40" s="12" t="str">
+      <c r="K40" s="40" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/administration/workspaces-and-person-partitions/allow-user-access-to-a-workspace.html","Allow User Access to Workspace")</f>
         <v>Allow User Access to Workspace</v>
       </c>
-      <c r="L40" s="17"/>
+      <c r="L40" s="21"/>
     </row>
     <row r="41" spans="1:12" ht="14.1">
-      <c r="A41" s="50" t="s">
+      <c r="A41" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="27.95">
-      <c r="A42" s="50"/>
-      <c r="B42" s="6" t="s">
+      <c r="A42" s="55"/>
+      <c r="B42" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K42" s="16"/>
+      <c r="K42" s="47"/>
     </row>
     <row r="43" spans="1:12" ht="12.95">
-      <c r="A43" s="11"/>
-      <c r="B43" s="2"/>
-      <c r="K43" s="19"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="3"/>
+      <c r="K43" s="20"/>
     </row>
     <row r="44" spans="1:12" ht="12.95">
-      <c r="A44" s="51" t="s">
+      <c r="A44" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="52"/>
-      <c r="C44" s="52"/>
-      <c r="D44" s="52"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="52"/>
-      <c r="J44" s="52"/>
-      <c r="K44" s="52"/>
-    </row>
-    <row r="45" spans="1:12" ht="12.95">
-      <c r="A45" s="9" t="s">
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="54"/>
+      <c r="K44" s="54"/>
+    </row>
+    <row r="45" spans="1:12" ht="14.1">
+      <c r="A45" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="G45" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="H45" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I45" s="5" t="s">
+      <c r="I45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J45" s="5" t="s">
+      <c r="J45" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K45" s="10" t="s">
+      <c r="K45" s="45" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="84">
-      <c r="A46" s="11" t="s">
+    <row r="46" spans="1:12" ht="69.95">
+      <c r="A46" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K46" s="12" t="str">
+      <c r="K46" s="40" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/administration/email-setup/enable-person-restrictions-for-smart-campaigns.html","Enable Person Restrictions for Smart Campaigns ")</f>
         <v xml:space="preserve">Enable Person Restrictions for Smart Campaigns </v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="12.95">
-      <c r="A48" s="11"/>
+      <c r="A48" s="6"/>
     </row>
     <row r="49" spans="1:12" ht="12.95">
-      <c r="A49" s="51" t="s">
+      <c r="A49" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="B49" s="52"/>
-      <c r="C49" s="52"/>
-      <c r="D49" s="52"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="52"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="52"/>
-      <c r="J49" s="52"/>
-      <c r="K49" s="52"/>
-    </row>
-    <row r="50" spans="1:12" ht="12.95">
-      <c r="A50" s="9" t="s">
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="54"/>
+      <c r="K49" s="54"/>
+    </row>
+    <row r="50" spans="1:12" ht="14.1">
+      <c r="A50" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F50" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="G50" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H50" s="5" t="s">
+      <c r="H50" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I50" s="5" t="s">
+      <c r="I50" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J50" s="5" t="s">
+      <c r="J50" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K50" s="10" t="s">
+      <c r="K50" s="45" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="56.1">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K51" s="12" t="str">
+      <c r="K51" s="40" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/administration/email-setup/enable-communication-limits.html","Enable Communication Limits")</f>
         <v>Enable Communication Limits</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="12.95">
-      <c r="A53" s="51" t="s">
+      <c r="A53" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="B53" s="52"/>
-      <c r="C53" s="52"/>
-      <c r="D53" s="52"/>
-      <c r="E53" s="52"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="52"/>
-      <c r="H53" s="52"/>
-      <c r="I53" s="52"/>
-      <c r="J53" s="52"/>
-      <c r="K53" s="52"/>
-    </row>
-    <row r="54" spans="1:12" ht="12.95">
-      <c r="A54" s="9" t="s">
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="54"/>
+      <c r="J53" s="54"/>
+      <c r="K53" s="54"/>
+    </row>
+    <row r="54" spans="1:12" ht="14.1">
+      <c r="A54" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E54" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="F54" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="G54" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H54" s="5" t="s">
+      <c r="H54" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I54" s="5" t="s">
+      <c r="I54" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J54" s="5" t="s">
+      <c r="J54" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K54" s="10" t="s">
+      <c r="K54" s="45" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="27.95">
-      <c r="A55" s="50" t="s">
+      <c r="A55" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K55" s="12" t="s">
+      <c r="K55" s="40" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="14.1">
-      <c r="A56" s="50"/>
-      <c r="B56" s="6" t="s">
+      <c r="A56" s="55"/>
+      <c r="B56" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K56" s="12" t="str">
+      <c r="K56" s="40" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/administration/tags/managing-tag-values.html","Managing Tag Values")</f>
         <v>Managing Tag Values</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="14.1">
-      <c r="A57" s="50" t="s">
+      <c r="A57" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K57" s="12" t="str">
+      <c r="K57" s="40" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/administration/tags/create-a-program-channel.html","Create a Program Channel")</f>
         <v>Create a Program Channel</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="27.95">
-      <c r="A58" s="50"/>
-      <c r="B58" s="6" t="s">
+      <c r="A58" s="55"/>
+      <c r="B58" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K58" s="12" t="s">
+      <c r="K58" s="40" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="14.1">
-      <c r="A59" s="50"/>
-      <c r="B59" s="6" t="s">
+      <c r="A59" s="55"/>
+      <c r="B59" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="J59" s="4"/>
-      <c r="K59" s="16"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="47"/>
     </row>
     <row r="60" spans="1:12" ht="27.95">
-      <c r="A60" s="50"/>
-      <c r="B60" s="6" t="s">
+      <c r="A60" s="55"/>
+      <c r="B60" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K60" s="16"/>
+      <c r="K60" s="47"/>
     </row>
     <row r="61" spans="1:12" ht="14.1">
-      <c r="A61" s="50"/>
-      <c r="B61" s="6" t="s">
+      <c r="A61" s="55"/>
+      <c r="B61" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K61" s="16"/>
+      <c r="K61" s="47"/>
     </row>
     <row r="62" spans="1:12" ht="42">
-      <c r="A62" s="50"/>
-      <c r="B62" s="6" t="s">
+      <c r="A62" s="55"/>
+      <c r="B62" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K62" s="16"/>
-    </row>
-    <row r="63" spans="1:12" ht="12.95">
-      <c r="A63" s="11" t="s">
+      <c r="K62" s="47"/>
+    </row>
+    <row r="63" spans="1:12" ht="14.1">
+      <c r="A63" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="K63" s="12" t="s">
+      <c r="K63" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="L63" s="17"/>
+      <c r="L63" s="21"/>
     </row>
     <row r="65" spans="1:12" ht="12.95">
-      <c r="A65" s="51" t="s">
+      <c r="A65" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="B65" s="52"/>
-      <c r="C65" s="52"/>
-      <c r="D65" s="52"/>
-      <c r="E65" s="52"/>
-      <c r="F65" s="52"/>
-      <c r="G65" s="52"/>
-      <c r="H65" s="52"/>
-      <c r="I65" s="52"/>
-      <c r="J65" s="52"/>
-      <c r="K65" s="52"/>
-    </row>
-    <row r="66" spans="1:12" ht="12.95">
-      <c r="A66" s="9" t="s">
+      <c r="B65" s="54"/>
+      <c r="C65" s="54"/>
+      <c r="D65" s="54"/>
+      <c r="E65" s="54"/>
+      <c r="F65" s="54"/>
+      <c r="G65" s="54"/>
+      <c r="H65" s="54"/>
+      <c r="I65" s="54"/>
+      <c r="J65" s="54"/>
+      <c r="K65" s="54"/>
+    </row>
+    <row r="66" spans="1:12" ht="14.1">
+      <c r="A66" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E66" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="F66" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G66" s="5" t="s">
+      <c r="G66" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H66" s="5" t="s">
+      <c r="H66" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I66" s="5" t="s">
+      <c r="I66" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J66" s="5" t="s">
+      <c r="J66" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K66" s="10" t="s">
+      <c r="K66" s="45" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="39" customHeight="1">
-      <c r="A67" s="50" t="s">
+      <c r="A67" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K67" s="12" t="s">
+      <c r="K67" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="L67" s="17"/>
+      <c r="L67" s="21"/>
     </row>
     <row r="68" spans="1:12" ht="18.95" customHeight="1">
-      <c r="A68" s="50"/>
-      <c r="B68" s="6" t="s">
+      <c r="A68" s="55"/>
+      <c r="B68" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K68" s="12" t="s">
+      <c r="K68" s="40" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="45" customHeight="1">
-      <c r="A69" s="50"/>
-      <c r="B69" s="6" t="s">
+      <c r="A69" s="55"/>
+      <c r="B69" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K69" s="12" t="s">
+      <c r="K69" s="40" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A70" s="50"/>
-      <c r="B70" s="6" t="s">
+      <c r="A70" s="55"/>
+      <c r="B70" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K70" s="16"/>
+      <c r="K70" s="47"/>
     </row>
     <row r="71" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A71" s="50"/>
-      <c r="B71" s="6" t="s">
+      <c r="A71" s="55"/>
+      <c r="B71" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K71" s="16"/>
+      <c r="K71" s="47"/>
     </row>
     <row r="72" spans="1:12" ht="18.95" customHeight="1">
-      <c r="A72" s="50"/>
-      <c r="B72" s="6" t="s">
+      <c r="A72" s="55"/>
+      <c r="B72" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K72" s="12" t="s">
+      <c r="K72" s="40" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="27" customHeight="1">
-      <c r="A73" s="50"/>
-      <c r="B73" s="6" t="s">
+      <c r="A73" s="55"/>
+      <c r="B73" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K73" s="16"/>
+      <c r="K73" s="47"/>
     </row>
     <row r="74" spans="1:12" ht="29.1" customHeight="1">
-      <c r="A74" s="50"/>
-      <c r="B74" s="6" t="s">
+      <c r="A74" s="55"/>
+      <c r="B74" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K74" s="12" t="s">
+      <c r="K74" s="40" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="42">
-      <c r="A75" s="11" t="s">
+      <c r="A75" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K75" s="12" t="str">
+      <c r="K75" s="40" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/administration/marketo-custom-activities/understanding-custom-activities.html","Understanding Custom Activities ")</f>
         <v xml:space="preserve">Understanding Custom Activities </v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="27.95">
-      <c r="A76" s="50" t="s">
+    <row r="76" spans="1:12" ht="14.1">
+      <c r="A76" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="B76" s="20" t="s">
+      <c r="B76" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="K76" s="12" t="str">
+      <c r="K76" s="40" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/administration/marketo-custom-objects/understanding-marketo-custom-objects.html","Understanding Marketo Custom Objects")</f>
         <v>Understanding Marketo Custom Objects</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="27.95">
-      <c r="A77" s="50"/>
-      <c r="B77" s="20" t="s">
+      <c r="A77" s="55"/>
+      <c r="B77" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="K77" s="16"/>
+      <c r="K77" s="47"/>
     </row>
     <row r="78" spans="1:12" ht="12.95">
-      <c r="A78" s="11"/>
-      <c r="B78" s="20"/>
-      <c r="K78" s="16"/>
+      <c r="A78" s="6"/>
+      <c r="B78" s="39"/>
+      <c r="K78" s="47"/>
     </row>
     <row r="79" spans="1:12" ht="12.95">
-      <c r="A79" s="51" t="s">
+      <c r="A79" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="B79" s="52"/>
-      <c r="C79" s="52"/>
-      <c r="D79" s="52"/>
-      <c r="E79" s="52"/>
-      <c r="F79" s="52"/>
-      <c r="G79" s="52"/>
-      <c r="H79" s="52"/>
-      <c r="I79" s="52"/>
-      <c r="J79" s="52"/>
-      <c r="K79" s="52"/>
-    </row>
-    <row r="80" spans="1:12" ht="12.95">
-      <c r="A80" s="9" t="s">
+      <c r="B79" s="54"/>
+      <c r="C79" s="54"/>
+      <c r="D79" s="54"/>
+      <c r="E79" s="54"/>
+      <c r="F79" s="54"/>
+      <c r="G79" s="54"/>
+      <c r="H79" s="54"/>
+      <c r="I79" s="54"/>
+      <c r="J79" s="54"/>
+      <c r="K79" s="54"/>
+    </row>
+    <row r="80" spans="1:12" ht="14.1">
+      <c r="A80" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D80" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E80" s="5" t="s">
+      <c r="E80" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F80" s="5" t="s">
+      <c r="F80" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G80" s="5" t="s">
+      <c r="G80" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H80" s="5" t="s">
+      <c r="H80" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I80" s="5" t="s">
+      <c r="I80" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J80" s="5" t="s">
+      <c r="J80" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K80" s="10" t="s">
+      <c r="K80" s="45" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="12.95">
-      <c r="A81" s="11" t="s">
+    <row r="81" spans="1:13" ht="14.1">
+      <c r="A81" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="K81" s="21" t="str">
+      <c r="K81" s="49" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/administration/email-setup/change-the-default-from-email-and-from-label.html","Change the Default From Email and From Label")</f>
         <v>Change the Default From Email and From Label</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="12.95">
-      <c r="A82" s="11"/>
-      <c r="B82" s="6"/>
-      <c r="K82" s="21" t="s">
+    <row r="82" spans="1:13" ht="14.1">
+      <c r="A82" s="6"/>
+      <c r="B82" s="7"/>
+      <c r="K82" s="49" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="12.95">
-      <c r="K83" s="21" t="s">
+    <row r="83" spans="1:13" ht="14.1">
+      <c r="K83" s="49" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="12.95">
-      <c r="A84" s="11"/>
-      <c r="B84" s="2"/>
-      <c r="K84" s="19"/>
+      <c r="A84" s="6"/>
+      <c r="B84" s="3"/>
+      <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:13" ht="12.95">
-      <c r="A85" s="51" t="s">
+      <c r="A85" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="B85" s="52"/>
-      <c r="C85" s="52"/>
-      <c r="D85" s="52"/>
-      <c r="E85" s="52"/>
-      <c r="F85" s="52"/>
-      <c r="G85" s="52"/>
-      <c r="H85" s="52"/>
-      <c r="I85" s="52"/>
-      <c r="J85" s="52"/>
-      <c r="K85" s="52"/>
-    </row>
-    <row r="86" spans="1:13" ht="12.95">
-      <c r="A86" s="9" t="s">
+      <c r="B85" s="54"/>
+      <c r="C85" s="54"/>
+      <c r="D85" s="54"/>
+      <c r="E85" s="54"/>
+      <c r="F85" s="54"/>
+      <c r="G85" s="54"/>
+      <c r="H85" s="54"/>
+      <c r="I85" s="54"/>
+      <c r="J85" s="54"/>
+      <c r="K85" s="54"/>
+    </row>
+    <row r="86" spans="1:13" ht="14.1">
+      <c r="A86" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D86" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E86" s="5" t="s">
+      <c r="E86" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F86" s="5" t="s">
+      <c r="F86" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G86" s="5" t="s">
+      <c r="G86" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H86" s="5" t="s">
+      <c r="H86" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I86" s="5" t="s">
+      <c r="I86" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J86" s="5" t="s">
+      <c r="J86" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K86" s="10" t="s">
+      <c r="K86" s="45" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="15" customHeight="1">
-      <c r="A87" s="50" t="s">
+      <c r="A87" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K87" s="12" t="s">
+      <c r="K87" s="40" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="14.1">
-      <c r="A88" s="50"/>
-      <c r="B88" s="6" t="s">
+      <c r="A88" s="55"/>
+      <c r="B88" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K88" s="12" t="s">
+      <c r="K88" s="40" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="56.1">
-      <c r="A89" s="50"/>
-      <c r="B89" s="6" t="s">
+      <c r="A89" s="55"/>
+      <c r="B89" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K89" s="12" t="s">
+      <c r="K89" s="40" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="14.1">
-      <c r="A90" s="50" t="s">
+      <c r="A90" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K90" s="12" t="str">
+      <c r="K90" s="40" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/administration/settings/edit-landing-page-settings.html","Edit Landing Page Settings")</f>
         <v>Edit Landing Page Settings</v>
       </c>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
+      <c r="L90" s="21"/>
+      <c r="M90" s="21"/>
     </row>
     <row r="91" spans="1:13" ht="14.1">
-      <c r="A91" s="50"/>
-      <c r="B91" s="6" t="s">
+      <c r="A91" s="55"/>
+      <c r="B91" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K91" s="16"/>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
+      <c r="K91" s="47"/>
+      <c r="L91" s="21"/>
+      <c r="M91" s="21"/>
     </row>
     <row r="92" spans="1:13" ht="14.1">
-      <c r="A92" s="50"/>
-      <c r="B92" s="6" t="s">
+      <c r="A92" s="55"/>
+      <c r="B92" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K92" s="12" t="s">
+      <c r="K92" s="40" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="14.1">
-      <c r="A93" s="50"/>
-      <c r="B93" s="6" t="s">
+      <c r="A93" s="55"/>
+      <c r="B93" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K93" s="16"/>
+      <c r="K93" s="47"/>
     </row>
     <row r="94" spans="1:13" ht="14.1">
-      <c r="A94" s="50"/>
-      <c r="B94" s="6" t="s">
+      <c r="A94" s="55"/>
+      <c r="B94" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K94" s="12" t="s">
+      <c r="K94" s="40" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="14.1">
-      <c r="A95" s="50"/>
-      <c r="B95" s="6" t="s">
+    <row r="95" spans="1:13" ht="27.95">
+      <c r="A95" s="55"/>
+      <c r="B95" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="K95" s="12" t="s">
+      <c r="K95" s="40" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="27.95">
-      <c r="A96" s="50"/>
-      <c r="B96" s="6" t="s">
+      <c r="A96" s="55"/>
+      <c r="B96" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K96" s="16"/>
+      <c r="K96" s="47"/>
     </row>
     <row r="97" spans="1:12" ht="27.95">
-      <c r="A97" s="50"/>
-      <c r="B97" s="6" t="s">
+      <c r="A97" s="55"/>
+      <c r="B97" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K97" s="12" t="s">
+      <c r="K97" s="40" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="69.95">
-      <c r="A98" s="50" t="s">
+    <row r="98" spans="1:12" ht="56.1">
+      <c r="A98" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K98" s="12" t="s">
+      <c r="K98" s="40" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="14.1">
-      <c r="A99" s="50"/>
-      <c r="B99" s="8" t="s">
+      <c r="A99" s="55"/>
+      <c r="B99" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="K99" s="12" t="s">
+      <c r="K99" s="40" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="51" customHeight="1">
-      <c r="A100" s="50"/>
-      <c r="B100" s="8" t="s">
+      <c r="A100" s="55"/>
+      <c r="B100" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="K100" s="23" t="s">
+      <c r="K100" s="40" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="14.1">
-      <c r="A101" s="50" t="s">
+      <c r="A101" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B101" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K101" s="12" t="s">
+      <c r="K101" s="40" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="14.1">
-      <c r="A102" s="50"/>
-      <c r="B102" s="6" t="s">
+      <c r="A102" s="55"/>
+      <c r="B102" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K102" s="16"/>
-      <c r="L102" s="24"/>
+      <c r="K102" s="47"/>
+      <c r="L102" s="23"/>
     </row>
     <row r="103" spans="1:12" ht="42">
-      <c r="A103" s="50"/>
-      <c r="B103" s="6" t="s">
+      <c r="A103" s="55"/>
+      <c r="B103" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K103" s="16"/>
-    </row>
-    <row r="104" spans="1:12" ht="14.1">
-      <c r="A104" s="49" t="s">
+      <c r="K103" s="47"/>
+    </row>
+    <row r="104" spans="1:12" ht="41.1" customHeight="1">
+      <c r="A104" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="K104" s="12" t="s">
+      <c r="K104" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="14.1">
-      <c r="A105" s="49"/>
-      <c r="B105" s="8" t="s">
+    <row r="105" spans="1:12" ht="69.95">
+      <c r="A105" s="57"/>
+      <c r="B105" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K105" s="12" t="s">
+      <c r="K105" s="51" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="27.95">
-      <c r="A106" s="49"/>
-      <c r="B106" s="8" t="s">
+      <c r="A106" s="57"/>
+      <c r="B106" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K106" s="23" t="s">
+      <c r="K106" s="51" t="s">
         <v>173</v>
       </c>
-      <c r="L106" s="24" t="s">
+    </row>
+    <row r="107" spans="1:12" ht="42">
+      <c r="A107" s="57"/>
+      <c r="B107" s="7" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" ht="27.95">
-      <c r="A107" s="49"/>
-      <c r="B107" s="8" t="s">
+      <c r="K107" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="K107" s="12" t="s">
+    </row>
+    <row r="108" spans="1:12" ht="42">
+      <c r="A108" s="57"/>
+      <c r="B108" s="7" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" ht="14.1">
-      <c r="A108" s="49"/>
-      <c r="B108" s="8" t="s">
+      <c r="K108" s="47"/>
+    </row>
+    <row r="109" spans="1:12" ht="27.95">
+      <c r="A109" s="57"/>
+      <c r="B109" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K108" s="12" t="s">
+      <c r="K109" s="47"/>
+    </row>
+    <row r="110" spans="1:12" ht="27.95">
+      <c r="A110" s="57"/>
+      <c r="B110" s="7" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" ht="27.95">
-      <c r="A109" s="50" t="s">
+      <c r="K110" s="47"/>
+    </row>
+    <row r="111" spans="1:12" ht="14.1">
+      <c r="A111" s="57"/>
+      <c r="B111" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="K111" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="K109" s="12" t="s">
+    </row>
+    <row r="112" spans="1:12" ht="56.1">
+      <c r="A112" s="57"/>
+      <c r="B112" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="L109" s="17" t="s">
+      <c r="K112" s="51" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="14.1">
-      <c r="A110" s="50"/>
-      <c r="B110" s="6" t="s">
+    <row r="113" spans="1:12" ht="69.95">
+      <c r="A113" s="57"/>
+      <c r="B113" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K110" s="12" t="s">
+      <c r="K113" s="51" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="27.95" customHeight="1">
-      <c r="A111" s="50"/>
-      <c r="B111" s="6" t="s">
+    <row r="114" spans="1:12" ht="27.95">
+      <c r="A114" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="K111" s="12"/>
-    </row>
-    <row r="112" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A112" s="50" t="s">
+      <c r="B114" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="K114" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="K112" s="12" t="s">
+    </row>
+    <row r="115" spans="1:12" ht="14.1">
+      <c r="A115" s="57"/>
+      <c r="B115" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="L112" s="17"/>
-    </row>
-    <row r="113" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A113" s="50"/>
-      <c r="B113" s="6" t="s">
+      <c r="K115" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="K113" s="12"/>
-      <c r="L113" s="17"/>
-    </row>
-    <row r="114" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A114" s="50" t="s">
+    </row>
+    <row r="116" spans="1:12" ht="27.95" customHeight="1">
+      <c r="A116" s="57"/>
+      <c r="B116" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="B114" s="53" t="s">
+      <c r="K116" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="L114" s="17"/>
-    </row>
-    <row r="115" spans="1:12" ht="27.75" customHeight="1">
-      <c r="A115" s="50"/>
-      <c r="B115" s="55"/>
-      <c r="C115" s="55"/>
-      <c r="D115" s="55"/>
-      <c r="K115" s="12" t="s">
+      <c r="L116" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="L115" s="17"/>
-    </row>
-    <row r="116" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A116" s="50"/>
-      <c r="B116" s="8" t="s">
+    </row>
+    <row r="117" spans="1:12" ht="27.95">
+      <c r="A117" s="57"/>
+      <c r="B117" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="C116" s="55"/>
-      <c r="D116" s="55"/>
-      <c r="K116" s="12" t="s">
+      <c r="K117" s="40" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="12.95">
-      <c r="A117" s="25"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
-      <c r="G117" s="3"/>
-      <c r="H117" s="3"/>
-      <c r="I117" s="3"/>
-      <c r="J117" s="3"/>
-      <c r="K117" s="26"/>
-    </row>
-    <row r="118" spans="1:12" ht="12.95">
-      <c r="A118" s="51" t="s">
+    <row r="118" spans="1:12" ht="14.1">
+      <c r="A118" s="57"/>
+      <c r="B118" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="B118" s="52"/>
-      <c r="C118" s="52"/>
-      <c r="D118" s="52"/>
-      <c r="E118" s="52"/>
-      <c r="F118" s="52"/>
-      <c r="G118" s="52"/>
-      <c r="H118" s="52"/>
-      <c r="I118" s="52"/>
-      <c r="J118" s="52"/>
-      <c r="K118" s="52"/>
-    </row>
-    <row r="119" spans="1:12" ht="12.95">
-      <c r="A119" s="9" t="s">
+      <c r="K118" s="40" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="27.95">
+      <c r="A119" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K119" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="L119" s="21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="27.95">
+      <c r="A120" s="55"/>
+      <c r="B120" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K120" s="40" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="27.95" customHeight="1">
+      <c r="A121" s="55"/>
+      <c r="B121" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K121" s="40"/>
+    </row>
+    <row r="122" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A122" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K122" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="L122" s="21"/>
+    </row>
+    <row r="123" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A123" s="55"/>
+      <c r="B123" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K123" s="40"/>
+      <c r="L123" s="21"/>
+    </row>
+    <row r="124" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A124" s="55" t="s">
+        <v>208</v>
+      </c>
+      <c r="B124" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="L124" s="21"/>
+    </row>
+    <row r="125" spans="1:12" ht="27.75" customHeight="1">
+      <c r="A125" s="55"/>
+      <c r="B125" s="59"/>
+      <c r="C125" s="59"/>
+      <c r="D125" s="59"/>
+      <c r="K125" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="L125" s="21"/>
+    </row>
+    <row r="126" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A126" s="55"/>
+      <c r="B126" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C126" s="59"/>
+      <c r="D126" s="59"/>
+      <c r="K126" s="40" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="12.95">
+      <c r="A127" s="41"/>
+      <c r="B127" s="42"/>
+      <c r="C127" s="42"/>
+      <c r="D127" s="42"/>
+      <c r="E127" s="42"/>
+      <c r="F127" s="42"/>
+      <c r="G127" s="42"/>
+      <c r="H127" s="42"/>
+      <c r="I127" s="42"/>
+      <c r="J127" s="42"/>
+      <c r="K127" s="52"/>
+    </row>
+    <row r="128" spans="1:12" ht="12.95">
+      <c r="A128" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="B128" s="54"/>
+      <c r="C128" s="54"/>
+      <c r="D128" s="54"/>
+      <c r="E128" s="54"/>
+      <c r="F128" s="54"/>
+      <c r="G128" s="54"/>
+      <c r="H128" s="54"/>
+      <c r="I128" s="54"/>
+      <c r="J128" s="54"/>
+      <c r="K128" s="54"/>
+    </row>
+    <row r="129" spans="1:11" ht="14.1">
+      <c r="A129" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B129" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C119" s="5" t="s">
+      <c r="C129" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="D129" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E119" s="5" t="s">
+      <c r="E129" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F119" s="5" t="s">
+      <c r="F129" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G119" s="5" t="s">
+      <c r="G129" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H119" s="5" t="s">
+      <c r="H129" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I119" s="5" t="s">
+      <c r="I129" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J119" s="5" t="s">
+      <c r="J129" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K119" s="10" t="s">
+      <c r="K129" s="45" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="27.95">
-      <c r="A120" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="K120" s="12" t="str">
+    <row r="130" spans="1:11" ht="27.95">
+      <c r="A130" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K130" s="40" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/administration/settings/enable-or-disable-treasure-chest-features.html","Enable or Disable Treasure Chest Features")</f>
         <v>Enable or Disable Treasure Chest Features</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="42">
-      <c r="A121" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="K121" s="12" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" ht="12.95"/>
-    <row r="123" spans="1:12" ht="12.95">
-      <c r="A123" s="51" t="s">
-        <v>199</v>
-      </c>
-      <c r="B123" s="52"/>
-      <c r="C123" s="52"/>
-      <c r="D123" s="52"/>
-      <c r="E123" s="52"/>
-      <c r="F123" s="52"/>
-      <c r="G123" s="52"/>
-      <c r="H123" s="52"/>
-      <c r="I123" s="52"/>
-      <c r="J123" s="52"/>
-      <c r="K123" s="52"/>
-    </row>
-    <row r="124" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A124" s="9" t="s">
+    <row r="131" spans="1:11" ht="42">
+      <c r="A131" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K131" s="40" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="12.95"/>
+    <row r="133" spans="1:11" ht="12.95">
+      <c r="A133" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="B133" s="54"/>
+      <c r="C133" s="54"/>
+      <c r="D133" s="54"/>
+      <c r="E133" s="54"/>
+      <c r="F133" s="54"/>
+      <c r="G133" s="54"/>
+      <c r="H133" s="54"/>
+      <c r="I133" s="54"/>
+      <c r="J133" s="54"/>
+      <c r="K133" s="54"/>
+    </row>
+    <row r="134" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A134" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B124" s="5" t="s">
+      <c r="B134" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="C134" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D124" s="5" t="s">
+      <c r="D134" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E124" s="5" t="s">
+      <c r="E134" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F124" s="5" t="s">
+      <c r="F134" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G124" s="5" t="s">
+      <c r="G134" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H124" s="5" t="s">
+      <c r="H134" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I124" s="5" t="s">
+      <c r="I134" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J124" s="5" t="s">
+      <c r="J134" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K124" s="10" t="s">
+      <c r="K134" s="45" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="12.95">
-      <c r="A125" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="K125" s="12" t="str">
+    <row r="135" spans="1:11" ht="14.1">
+      <c r="A135" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="K135" s="40" t="str">
         <f>HYPERLINK("https://nation.marketo.com/t5/knowledgebase/how-to-subscribe-to-status-page-notifications/ta-p/296749","How to Subscribe to Status Page Notifications")</f>
         <v>How to Subscribe to Status Page Notifications</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="42">
-      <c r="A126" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="K126" s="12" t="str">
+    <row r="136" spans="1:11" ht="42">
+      <c r="A136" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K136" s="40" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/core-marketo-concepts/smart-campaigns/flow-actions/send-alert.html","Send Alert")</f>
         <v>Send Alert</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="12.95">
-      <c r="A127" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="K127" s="12" t="str">
+    <row r="137" spans="1:11" ht="14.1">
+      <c r="A137" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="K137" s="40" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/core-marketo-concepts/miscellaneous/understanding-notifications.html","Understanding Notifications")</f>
         <v>Understanding Notifications</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="12.95"/>
-    <row r="129" ht="12.95"/>
+    <row r="138" spans="1:11" ht="12.95"/>
+    <row r="139" spans="1:11" ht="12.95"/>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="35">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="A49:K49"/>
+    <mergeCell ref="A8:K8"/>
     <mergeCell ref="A30:K30"/>
     <mergeCell ref="A34:K34"/>
     <mergeCell ref="A44:K44"/>
+    <mergeCell ref="A128:K128"/>
+    <mergeCell ref="A133:K133"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="A85:K85"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="A90:A97"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="A119:A121"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="A104:A113"/>
     <mergeCell ref="A79:K79"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A36:A40"/>
     <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A118:K118"/>
-    <mergeCell ref="A123:K123"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="A85:K85"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="A90:A97"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A104:A108"/>
-    <mergeCell ref="A109:A111"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A114:A116"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="A49:K49"/>
     <mergeCell ref="A53:K53"/>
     <mergeCell ref="A65:K65"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="A57:A62"/>
     <mergeCell ref="A67:A74"/>
     <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A8:K8"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{1C882D54-F374-7245-A674-094BF749AE2C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G103 G105:G1048576" xr:uid="{1C882D54-F374-7245-A674-094BF749AE2C}">
       <formula1>"Low (0-4 hours), Medium (4.5-15 hours), High (15+ hours)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{7BC5869C-AB0E-6945-B5A1-392F37E295EB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H103 H105:H1048576" xr:uid="{7BC5869C-AB0E-6945-B5A1-392F37E295EB}">
       <formula1>"Complete, In Progress, Not Started"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{B643AA06-DCF2-EF48-9E18-B3B544E712A3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F103 F105:F1048576" xr:uid="{B643AA06-DCF2-EF48-9E18-B3B544E712A3}">
       <formula1>"High, Medium, Low"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3669,21 +3821,28 @@
     <hyperlink ref="K99" r:id="rId35" xr:uid="{0E9A1183-184D-9642-946B-8772540047B9}"/>
     <hyperlink ref="K100" r:id="rId36" xr:uid="{36B5217F-B742-FA41-BAB7-80A6067C943C}"/>
     <hyperlink ref="K101" r:id="rId37" xr:uid="{41A23535-2E44-BC4B-AEFB-080874AFED96}"/>
-    <hyperlink ref="K104" r:id="rId38" xr:uid="{85B468D5-2EFD-E941-A9B7-2D4DFB8CDD67}"/>
-    <hyperlink ref="K105" r:id="rId39" xr:uid="{0FD224EA-FB80-E54E-8504-55E8F75E919E}"/>
-    <hyperlink ref="K106" r:id="rId40" xr:uid="{40BE54E4-5953-D549-A3DA-50DDFEF17318}"/>
-    <hyperlink ref="L106" r:id="rId41" xr:uid="{1CC68445-4ED8-0940-B082-2ECDEAE6AE05}"/>
-    <hyperlink ref="K107" r:id="rId42" xr:uid="{09F4356B-C155-2549-977D-1B35D6345BE4}"/>
-    <hyperlink ref="K108" r:id="rId43" xr:uid="{57AB3060-2919-2D4B-838A-3097FBFC2A42}"/>
-    <hyperlink ref="K109" r:id="rId44" xr:uid="{56BB8889-5A18-A34D-AC8E-383CAC00E786}"/>
-    <hyperlink ref="L109" r:id="rId45" xr:uid="{2AB6EDD3-A925-5B47-93FE-8C1B09D5761C}"/>
-    <hyperlink ref="K110" r:id="rId46" xr:uid="{077C2209-AF48-CA47-A223-DA0DB7947C53}"/>
-    <hyperlink ref="K112" r:id="rId47" xr:uid="{0FB20D94-AB74-D740-8380-454AB2DABA05}"/>
-    <hyperlink ref="K115" r:id="rId48" xr:uid="{C1EBCB61-2212-CD49-8613-CEE89E098788}"/>
-    <hyperlink ref="K116" r:id="rId49" xr:uid="{485206B2-0BE8-354A-9488-F369A149537A}"/>
-    <hyperlink ref="K121" r:id="rId50" xr:uid="{98FC6A3C-36F5-C54B-AAD5-65AE424B056D}"/>
+    <hyperlink ref="K114" r:id="rId38" xr:uid="{85B468D5-2EFD-E941-A9B7-2D4DFB8CDD67}"/>
+    <hyperlink ref="K115" r:id="rId39" xr:uid="{0FD224EA-FB80-E54E-8504-55E8F75E919E}"/>
+    <hyperlink ref="K116" r:id="rId40" xr:uid="{40BE54E4-5953-D549-A3DA-50DDFEF17318}"/>
+    <hyperlink ref="L116" r:id="rId41" xr:uid="{1CC68445-4ED8-0940-B082-2ECDEAE6AE05}"/>
+    <hyperlink ref="K117" r:id="rId42" xr:uid="{09F4356B-C155-2549-977D-1B35D6345BE4}"/>
+    <hyperlink ref="K118" r:id="rId43" xr:uid="{57AB3060-2919-2D4B-838A-3097FBFC2A42}"/>
+    <hyperlink ref="K119" r:id="rId44" xr:uid="{56BB8889-5A18-A34D-AC8E-383CAC00E786}"/>
+    <hyperlink ref="L119" r:id="rId45" xr:uid="{2AB6EDD3-A925-5B47-93FE-8C1B09D5761C}"/>
+    <hyperlink ref="K120" r:id="rId46" xr:uid="{077C2209-AF48-CA47-A223-DA0DB7947C53}"/>
+    <hyperlink ref="K122" r:id="rId47" xr:uid="{0FB20D94-AB74-D740-8380-454AB2DABA05}"/>
+    <hyperlink ref="K125" r:id="rId48" xr:uid="{C1EBCB61-2212-CD49-8613-CEE89E098788}"/>
+    <hyperlink ref="K126" r:id="rId49" xr:uid="{485206B2-0BE8-354A-9488-F369A149537A}"/>
+    <hyperlink ref="K131" r:id="rId50" xr:uid="{98FC6A3C-36F5-C54B-AAD5-65AE424B056D}"/>
     <hyperlink ref="K82" r:id="rId51" xr:uid="{1754BE09-D304-3549-80DD-AF61E325CAC3}"/>
     <hyperlink ref="K83" r:id="rId52" xr:uid="{500C2220-028A-0D42-BC90-6E9F89C4DCC5}"/>
+    <hyperlink ref="K104" r:id="rId53" xr:uid="{244AB4A5-E2FE-454C-9000-784A74CB5809}"/>
+    <hyperlink ref="K105" r:id="rId54" xr:uid="{65333336-C58E-1343-A8E2-1E06885351DB}"/>
+    <hyperlink ref="K106" r:id="rId55" xr:uid="{43DE41A0-569B-564C-B849-C7F0256427DF}"/>
+    <hyperlink ref="K107" r:id="rId56" location="add-a-chat-user" xr:uid="{5CB010BC-E090-4441-9564-D430B2E3616E}"/>
+    <hyperlink ref="K111" r:id="rId57" xr:uid="{F95EA15B-53FB-4A4E-ABD5-9403509E3BEA}"/>
+    <hyperlink ref="K112" r:id="rId58" location="edit-existing-permissions" xr:uid="{1096045A-9F9B-7A42-981A-E9BCF3A81BF9}"/>
+    <hyperlink ref="K113" r:id="rId59" location="create-a-profile" xr:uid="{D4AEAD2A-9E25-8E49-AE55-97A7DAF1F02E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3698,426 +3857,426 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F2" sqref="F1:F1048576"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21" style="22" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="7"/>
-    <col min="4" max="5" width="40.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="7" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="7"/>
-    <col min="11" max="11" width="24.28515625" style="13" customWidth="1"/>
-    <col min="12" max="16384" width="14.42578125" style="7"/>
+    <col min="1" max="1" width="21" style="14" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="2"/>
+    <col min="4" max="5" width="40.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="2"/>
+    <col min="11" max="11" width="24.28515625" style="10" customWidth="1"/>
+    <col min="12" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.95">
-      <c r="A1" s="51" t="s">
-        <v>206</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
+      <c r="A1" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
     </row>
     <row r="2" spans="1:11" ht="12.95">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="56.1">
-      <c r="A3" s="50" t="s">
-        <v>207</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="K3" s="12" t="str">
+      <c r="A3" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K3" s="8" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/core-marketo-concepts/smart-lists-and-static-lists/managing-people-in-smart-lists/database-dashboard.html","Database Dashboard")</f>
         <v>Database Dashboard</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="84">
-      <c r="A4" s="50"/>
-      <c r="B4" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="K4" s="16"/>
+    <row r="4" spans="1:11" ht="56.1">
+      <c r="A4" s="55"/>
+      <c r="B4" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11" ht="27.95">
-      <c r="A5" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>212</v>
+      <c r="A5" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="27.95">
-      <c r="A6" s="50"/>
-      <c r="B6" s="6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="42">
-      <c r="A7" s="50"/>
-      <c r="B7" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="42">
-      <c r="A8" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="K8" s="12" t="str">
+      <c r="A6" s="55"/>
+      <c r="B6" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="27.95">
+      <c r="A7" s="55"/>
+      <c r="B7" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="27.95">
+      <c r="A8" s="55" t="s">
+        <v>233</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K8" s="8" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/email-marketing/deliverability/durable-unsubscribe.html","Durable Unsubscribe")</f>
         <v>Durable Unsubscribe</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="84">
-      <c r="A9" s="50"/>
-      <c r="B9" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="K9" s="16"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K9" s="9"/>
     </row>
     <row r="10" spans="1:11" ht="12.95">
-      <c r="A10" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="K10" s="12" t="str">
+      <c r="A10" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="K10" s="8" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/core-marketo-concepts/smart-lists-and-static-lists/managing-people-in-smart-lists/add-person-to-blocklist.html","Add Person to Blocklist")</f>
         <v>Add Person to Blocklist</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="42">
-      <c r="A11" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="K11" s="12" t="str">
+      <c r="A11" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K11" s="8" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/email-marketing/deliverability/hard-and-soft-bounces-in-email.html","Hard and Soft Bounces in Emails")</f>
         <v>Hard and Soft Bounces in Emails</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="42">
-      <c r="A12" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="K12" s="12" t="str">
+    <row r="12" spans="1:11" ht="27.95">
+      <c r="A12" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K12" s="8" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/core-marketo-concepts/smart-lists-and-static-lists/managing-people-in-smart-lists/find-and-merge-duplicate-people.html","Find and Merge Duplicate People")</f>
         <v>Find and Merge Duplicate People</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="42">
-      <c r="A13" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>226</v>
+    <row r="13" spans="1:11" ht="27.95">
+      <c r="A13" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="12.95">
-      <c r="A16" s="51" t="s">
-        <v>227</v>
-      </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
+      <c r="A16" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
     </row>
     <row r="17" spans="1:11" ht="12.95">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="K17" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="69.95">
-      <c r="A18" s="50" t="s">
-        <v>227</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="98.1">
-      <c r="A19" s="50"/>
-      <c r="B19" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="12" t="s">
-        <v>231</v>
+      <c r="A18" s="55" t="s">
+        <v>245</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="69.95">
+      <c r="A19" s="55"/>
+      <c r="B19" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="8" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="12.95">
-      <c r="A20" s="11"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="19"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="11"/>
     </row>
     <row r="21" spans="1:11" ht="12.95">
-      <c r="A21" s="51" t="s">
-        <v>232</v>
-      </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
+      <c r="A21" s="53" t="s">
+        <v>250</v>
+      </c>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
     </row>
     <row r="22" spans="1:11" ht="12.95">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="J22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="K22" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="56.1">
-      <c r="A23" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="12" t="s">
-        <v>234</v>
+      <c r="A23" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="8" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="12.95">
-      <c r="A25" s="51" t="s">
-        <v>235</v>
-      </c>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
+      <c r="A25" s="53" t="s">
+        <v>253</v>
+      </c>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
     </row>
     <row r="26" spans="1:11" ht="12.95">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="J26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K26" s="10" t="s">
+      <c r="K26" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="12.95" customHeight="1">
-      <c r="A27" s="50" t="s">
-        <v>235</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="K27" s="12" t="str">
+      <c r="A27" s="55" t="s">
+        <v>253</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K27" s="8" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/personalization/segmentation-and-snippets/segmentation/create-a-segmentation.html","Create a Segmentation")</f>
         <v>Create a Segmentation</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="12.95" customHeight="1">
-      <c r="A28" s="50"/>
-      <c r="B28" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="K28" s="12" t="str">
+      <c r="A28" s="55"/>
+      <c r="B28" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="K28" s="8" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/personalization/segmentation-and-snippets/segmentation/segmentation-order-priority.html","Segmentation Order Priority")</f>
         <v>Segmentation Order Priority</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="26.1" customHeight="1">
-      <c r="A29" s="50"/>
-      <c r="B29" s="8" t="s">
-        <v>238</v>
+      <c r="A29" s="55"/>
+      <c r="B29" s="13" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="33.950000000000003" customHeight="1"/>
@@ -4163,612 +4322,607 @@
   <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView zoomScale="114" workbookViewId="0">
-      <selection activeCell="F2" sqref="F1:F1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="38" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="7"/>
-    <col min="4" max="5" width="29.28515625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="7" style="7" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="24.42578125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="38" style="22" customWidth="1"/>
-    <col min="12" max="16384" width="14.42578125" style="7"/>
+    <col min="1" max="1" width="21.85546875" style="36" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="2"/>
+    <col min="4" max="5" width="29.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="24.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="38" style="14" customWidth="1"/>
+    <col min="12" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12.95">
-      <c r="A1" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
+      <c r="A1" s="53" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
     </row>
     <row r="2" spans="1:13" ht="14.1">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="27.95">
-      <c r="A3" s="31" t="s">
-        <v>240</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="L3" s="17"/>
+      <c r="A3" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="L3" s="21"/>
     </row>
     <row r="4" spans="1:13" ht="27.95">
-      <c r="A4" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="K4" s="32" t="str">
+      <c r="A4" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K4" s="30" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/core-marketo-concepts/programs/working-with-programs/best-practice-how-to-organize-your-programs.html","Understanding Folders")</f>
         <v>Understanding Folders</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="8" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="54" t="s">
-        <v>245</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="33" t="s">
-        <v>247</v>
-      </c>
-      <c r="M5" s="34"/>
+    <row r="5" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="58" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:13" ht="18" customHeight="1">
-      <c r="A6" s="54"/>
-      <c r="B6" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="K6" s="32" t="s">
+      <c r="A6" s="58"/>
+      <c r="B6" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="29.25" customHeight="1">
+      <c r="A7" s="58"/>
+      <c r="B7" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="29.25" customHeight="1">
+      <c r="A8" s="58"/>
+      <c r="B8" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="72.95" customHeight="1">
+      <c r="A9" s="58"/>
+      <c r="B9" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="27.95">
+      <c r="A10" s="58" t="s">
+        <v>273</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K10" s="30" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A7" s="54"/>
-      <c r="B7" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="K7" s="32" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A8" s="54"/>
-      <c r="B8" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="K8" s="32" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="72.95" customHeight="1">
-      <c r="A9" s="54"/>
-      <c r="B9" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="K9" s="32" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="27.95">
-      <c r="A10" s="54" t="s">
-        <v>255</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="K10" s="32" t="s">
-        <v>231</v>
-      </c>
-    </row>
     <row r="11" spans="1:13" ht="27.95">
-      <c r="A11" s="54"/>
-      <c r="B11" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="K11" s="35"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K11" s="33"/>
     </row>
     <row r="12" spans="1:13" ht="27.95">
-      <c r="A12" s="54" t="s">
-        <v>204</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="K12" s="32" t="str">
+      <c r="A12" s="58" t="s">
+        <v>222</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K12" s="30" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/core-marketo-concepts/miscellaneous/notification-types.html","Notification Types")</f>
         <v>Notification Types</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="27.95">
-      <c r="A13" s="54"/>
-      <c r="B13" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="K13" s="32" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="84">
-      <c r="A14" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="K14" s="32" t="str">
+      <c r="A13" s="58"/>
+      <c r="B13" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K13" s="30" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="69.95">
+      <c r="A14" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K14" s="30" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/reporting/basic-reporting/report-subscriptions/subscribe-to-a-smart-list.html","Subscribe to a Smart List")</f>
         <v>Subscribe to a Smart List</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="12.95">
-      <c r="A16" s="51" t="s">
-        <v>263</v>
-      </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
+      <c r="A16" s="53" t="s">
+        <v>281</v>
+      </c>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
     </row>
     <row r="17" spans="1:12" ht="14.1">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="29" t="s">
+      <c r="F17" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="G17" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H17" s="29" t="s">
+      <c r="H17" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I17" s="29" t="s">
+      <c r="I17" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="K17" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="56.1" customHeight="1">
-      <c r="A18" s="54" t="s">
-        <v>264</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="K18" s="32" t="s">
-        <v>266</v>
-      </c>
-      <c r="L18" s="17"/>
+      <c r="A18" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K18" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="L18" s="21"/>
     </row>
     <row r="19" spans="1:12" ht="32.1" customHeight="1">
-      <c r="A19" s="54"/>
-      <c r="B19" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="K19" s="32"/>
-      <c r="L19" s="17"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="21"/>
     </row>
     <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="54" t="s">
-        <v>268</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="K20" s="32" t="s">
-        <v>270</v>
+      <c r="A20" s="58" t="s">
+        <v>286</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K20" s="30" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="45" customHeight="1">
-      <c r="A21" s="54"/>
-      <c r="B21" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="K21" s="32" t="s">
-        <v>272</v>
+      <c r="A21" s="58"/>
+      <c r="B21" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="K21" s="30" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="30.75" customHeight="1">
-      <c r="A22" s="54"/>
-      <c r="B22" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="K22" s="32" t="s">
-        <v>274</v>
+      <c r="A22" s="58"/>
+      <c r="B22" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="K22" s="30" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="29.1" customHeight="1">
-      <c r="A23" s="54"/>
-      <c r="B23" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="K23" s="32" t="s">
-        <v>276</v>
+      <c r="A23" s="58"/>
+      <c r="B23" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="K23" s="30" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="54" t="s">
-        <v>277</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="K24" s="32" t="str">
+      <c r="A24" s="58" t="s">
+        <v>295</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K24" s="30" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/core-marketo-concepts/smart-campaigns/creating-a-smart-campaign/understanding-batch-and-trigger-smart-campaigns.html?lang=en#batch-campaign","Batch Campaign")</f>
         <v>Batch Campaign</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="14.1">
-      <c r="A25" s="54"/>
-      <c r="B25" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="K25" s="36"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K25" s="34"/>
     </row>
     <row r="26" spans="1:12" ht="14.1">
-      <c r="A26" s="54" t="s">
-        <v>280</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>281</v>
+      <c r="A26" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="14.1">
-      <c r="A27" s="54"/>
-      <c r="B27" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="K27" s="36"/>
-    </row>
-    <row r="28" spans="1:12" ht="42">
-      <c r="A28" s="54"/>
-      <c r="B28" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="K28" s="32" t="str">
+      <c r="A27" s="58"/>
+      <c r="B27" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K27" s="34"/>
+    </row>
+    <row r="28" spans="1:12" ht="27.95">
+      <c r="A28" s="58"/>
+      <c r="B28" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K28" s="30" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/core-marketo-concepts/smart-campaigns/creating-a-smart-campaign/understanding-batch-and-trigger-smart-campaigns.html?lang=en#trigger-campaign","Trigger Campaign")</f>
         <v>Trigger Campaign</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="42">
-      <c r="A29" s="54" t="s">
-        <v>283</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="K29" s="32" t="s">
-        <v>285</v>
-      </c>
-      <c r="L29" s="17"/>
+    <row r="29" spans="1:12" ht="27.95">
+      <c r="A29" s="58" t="s">
+        <v>301</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K29" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="L29" s="21"/>
     </row>
     <row r="30" spans="1:12" ht="123.95" customHeight="1">
-      <c r="A30" s="54"/>
-      <c r="B30" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="K30" s="37"/>
-      <c r="L30" s="17"/>
+      <c r="A30" s="58"/>
+      <c r="B30" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K30" s="35"/>
+      <c r="L30" s="21"/>
     </row>
     <row r="31" spans="1:12" ht="32.1" customHeight="1">
-      <c r="A31" s="54" t="s">
-        <v>287</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="K31" s="32" t="s">
-        <v>289</v>
+      <c r="A31" s="58" t="s">
+        <v>305</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="K31" s="30" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="42" customHeight="1">
-      <c r="A32" s="54"/>
-      <c r="B32" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="K32" s="32" t="s">
-        <v>291</v>
+      <c r="A32" s="58"/>
+      <c r="B32" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="K32" s="30" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="26.1" customHeight="1">
-      <c r="A33" s="54"/>
-      <c r="B33" s="8" t="s">
-        <v>292</v>
+      <c r="A33" s="58"/>
+      <c r="B33" s="13" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="21.95" customHeight="1">
-      <c r="A34" s="54"/>
-      <c r="B34" s="8" t="s">
-        <v>293</v>
+      <c r="A34" s="58"/>
+      <c r="B34" s="13" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="18" customHeight="1">
-      <c r="A35" s="54"/>
-      <c r="B35" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="K35" s="32" t="s">
-        <v>295</v>
+      <c r="A35" s="58"/>
+      <c r="B35" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="K35" s="30" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="33" customHeight="1">
-      <c r="A36" s="54"/>
-      <c r="B36" s="8" t="s">
-        <v>296</v>
+      <c r="A36" s="58"/>
+      <c r="B36" s="13" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="27.95" customHeight="1">
-      <c r="A37" s="54"/>
-      <c r="B37" s="8" t="s">
-        <v>297</v>
+      <c r="A37" s="58"/>
+      <c r="B37" s="13" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="12.95">
-      <c r="A39" s="51" t="s">
-        <v>298</v>
-      </c>
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
+      <c r="A39" s="53" t="s">
+        <v>316</v>
+      </c>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
     </row>
     <row r="40" spans="1:11" ht="14.1">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="29" t="s">
+      <c r="E40" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F40" s="29" t="s">
+      <c r="F40" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G40" s="29" t="s">
+      <c r="G40" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H40" s="29" t="s">
+      <c r="H40" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I40" s="29" t="s">
+      <c r="I40" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J40" s="5" t="s">
+      <c r="J40" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K40" s="9" t="s">
+      <c r="K40" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="27.95">
-      <c r="A41" s="54" t="s">
-        <v>299</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="K41" s="32" t="str">
+      <c r="A41" s="58" t="s">
+        <v>317</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K41" s="30" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/getting-started-with-marketo/quick-wins/simple-scoring.html","Simple Scoring")</f>
         <v>Simple Scoring</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="27.95">
-      <c r="A42" s="54"/>
-      <c r="B42" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="K42" s="36"/>
-    </row>
-    <row r="43" spans="1:11" ht="69.95">
-      <c r="A43" s="31" t="s">
-        <v>302</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="K43" s="36"/>
+      <c r="A42" s="58"/>
+      <c r="B42" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K42" s="34"/>
+    </row>
+    <row r="43" spans="1:11" ht="56.1">
+      <c r="A43" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K43" s="34"/>
     </row>
     <row r="44" spans="1:11" ht="27.95">
-      <c r="A44" s="31" t="s">
-        <v>304</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="K44" s="36"/>
+      <c r="A44" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K44" s="34"/>
     </row>
     <row r="45" spans="1:11" ht="27.95">
-      <c r="A45" s="31" t="s">
-        <v>306</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="K45" s="32" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="111.95">
-      <c r="A46" s="31" t="s">
-        <v>309</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="K46" s="32" t="str">
+      <c r="A45" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K45" s="30" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="84">
+      <c r="A46" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K46" s="30" t="str">
         <f>HYPERLINK("https://business.adobe.com/resources/ebooks/the-gdpr-and-the-marketer.html","The GDPR and The Marketer: A Practical Guide for the Marketo Customer")</f>
         <v>The GDPR and The Marketer: A Practical Guide for the Marketo Customer</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="27.95">
-      <c r="A47" s="54" t="s">
-        <v>311</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="K47" s="35"/>
+      <c r="A47" s="58" t="s">
+        <v>329</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K47" s="33"/>
     </row>
     <row r="48" spans="1:11" ht="14.1">
-      <c r="A48" s="54"/>
-      <c r="B48" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="K48" s="35"/>
-    </row>
-    <row r="49" spans="1:12" ht="42">
-      <c r="A49" s="54" t="s">
-        <v>314</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="K49" s="32" t="s">
-        <v>316</v>
-      </c>
-      <c r="L49" s="17"/>
-    </row>
-    <row r="50" spans="1:12" ht="56.1">
-      <c r="A50" s="54"/>
-      <c r="B50" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="K50" s="32" t="s">
-        <v>318</v>
-      </c>
-      <c r="L50" s="17"/>
+      <c r="A48" s="58"/>
+      <c r="B48" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K48" s="33"/>
+    </row>
+    <row r="49" spans="1:12" ht="27.95">
+      <c r="A49" s="58" t="s">
+        <v>332</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K49" s="30" t="s">
+        <v>334</v>
+      </c>
+      <c r="L49" s="21"/>
+    </row>
+    <row r="50" spans="1:12" ht="42">
+      <c r="A50" s="58"/>
+      <c r="B50" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K50" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="L50" s="21"/>
     </row>
     <row r="51" spans="1:12" ht="27.95">
-      <c r="A51" s="54"/>
-      <c r="B51" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="K51" s="37"/>
-      <c r="L51" s="17"/>
+      <c r="A51" s="58"/>
+      <c r="B51" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K51" s="35"/>
+      <c r="L51" s="21"/>
     </row>
     <row r="52" spans="1:12" ht="27.95">
-      <c r="A52" s="31" t="s">
-        <v>320</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="K52" s="32" t="str">
+      <c r="A52" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K52" s="30" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo-learn/tutorials/lead-and-data-management/subscription-center-watch.html","How to set up and manage a subscription center")</f>
         <v>How to set up and manage a subscription center</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="42">
-      <c r="A53" s="31" t="s">
-        <v>322</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="K53" s="32" t="s">
-        <v>324</v>
-      </c>
-      <c r="L53" s="17"/>
+    <row r="53" spans="1:12" ht="27.95">
+      <c r="A53" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K53" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="L53" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A20:A23"/>
@@ -4779,6 +4933,11 @@
     <mergeCell ref="A31:A37"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A39:K39"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{2BF04E9C-9EAB-E54D-854E-D25E99B17194}">
@@ -4826,581 +4985,581 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView zoomScale="104" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="37" style="46" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="7"/>
-    <col min="4" max="5" width="30.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="8" style="7" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="7" customWidth="1"/>
-    <col min="10" max="10" width="25.42578125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="34.42578125" style="7" customWidth="1"/>
-    <col min="12" max="16384" width="14.42578125" style="7"/>
+    <col min="1" max="1" width="24.140625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="37" style="25" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="2"/>
+    <col min="4" max="5" width="30.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="25.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="34.42578125" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="33" customHeight="1">
-      <c r="A3" s="54" t="s">
-        <v>325</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>326</v>
-      </c>
-      <c r="K3" s="17" t="s">
+      <c r="A3" s="58" t="s">
+        <v>343</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="L3" s="21"/>
+    </row>
+    <row r="4" spans="1:12" ht="33" customHeight="1">
+      <c r="A4" s="58"/>
+      <c r="B4" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="L4" s="21"/>
+    </row>
+    <row r="5" spans="1:12" ht="30" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="L5" s="21"/>
+    </row>
+    <row r="6" spans="1:12" ht="33" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="L6" s="21"/>
+    </row>
+    <row r="7" spans="1:12" ht="27.95" customHeight="1">
+      <c r="A7" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="L3" s="17"/>
-    </row>
-    <row r="4" spans="1:12" ht="33" customHeight="1">
-      <c r="A4" s="54"/>
-      <c r="B4" s="43" t="s">
-        <v>328</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>329</v>
-      </c>
-      <c r="L4" s="17"/>
-    </row>
-    <row r="5" spans="1:12" ht="30" customHeight="1">
-      <c r="A5" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>331</v>
-      </c>
-      <c r="K5" s="44" t="s">
-        <v>332</v>
-      </c>
-      <c r="L5" s="17"/>
-    </row>
-    <row r="6" spans="1:12" ht="33" customHeight="1">
-      <c r="A6" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>334</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>335</v>
-      </c>
-      <c r="L6" s="17"/>
-    </row>
-    <row r="7" spans="1:12" ht="27.95" customHeight="1">
-      <c r="A7" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>336</v>
+      <c r="B7" s="20" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A9" s="39" t="s">
-        <v>337</v>
-      </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
+      <c r="A9" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="29" t="s">
+      <c r="I10" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="33" customHeight="1">
-      <c r="A11" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>338</v>
-      </c>
-      <c r="K11" s="24" t="s">
-        <v>339</v>
+      <c r="A11" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="32.1" customHeight="1">
-      <c r="A12" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>340</v>
-      </c>
-      <c r="K12" s="24" t="s">
-        <v>341</v>
+      <c r="A12" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="125.1" customHeight="1">
-      <c r="A13" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>342</v>
-      </c>
-      <c r="K13" s="24" t="s">
-        <v>343</v>
-      </c>
-      <c r="L13" s="24" t="s">
-        <v>344</v>
+      <c r="A13" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="K13" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="L13" s="23" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A15" s="39" t="s">
-        <v>345</v>
-      </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
+      <c r="A15" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="29" t="s">
+      <c r="H16" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I16" s="29" t="s">
+      <c r="I16" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1">
-      <c r="A17" s="50" t="s">
-        <v>287</v>
-      </c>
-      <c r="B17" s="45" t="s">
-        <v>346</v>
-      </c>
-      <c r="K17" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="L17" s="17"/>
+      <c r="A17" s="55" t="s">
+        <v>305</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="K17" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="L17" s="21"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1">
-      <c r="A18" s="50"/>
-      <c r="B18" s="45" t="s">
-        <v>347</v>
-      </c>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
     </row>
     <row r="19" spans="1:12" ht="27" customHeight="1">
-      <c r="A19" s="50"/>
-      <c r="B19" s="45" t="s">
-        <v>348</v>
-      </c>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A20" s="50"/>
-      <c r="B20" s="45" t="s">
-        <v>349</v>
-      </c>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
     </row>
     <row r="21" spans="1:12" ht="83.1" customHeight="1">
-      <c r="A21" s="50"/>
-      <c r="B21" s="45" t="s">
-        <v>350</v>
-      </c>
-      <c r="K21" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="L21" s="17"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="K21" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="L21" s="21"/>
     </row>
     <row r="22" spans="1:12" ht="77.099999999999994" customHeight="1">
-      <c r="A22" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="B22" s="43" t="s">
-        <v>351</v>
-      </c>
-      <c r="K22" s="17" t="s">
-        <v>352</v>
-      </c>
-      <c r="L22" s="17"/>
+      <c r="A22" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="L22" s="21"/>
     </row>
     <row r="23" spans="1:12" ht="162.94999999999999" customHeight="1">
-      <c r="A23" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="B23" s="43" t="s">
-        <v>353</v>
-      </c>
-      <c r="K23" s="24" t="s">
-        <v>354</v>
+      <c r="A23" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="K23" s="23" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A26" s="39" t="s">
-        <v>355</v>
-      </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
+      <c r="A26" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="29" t="s">
+      <c r="E27" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="29" t="s">
+      <c r="F27" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G27" s="29" t="s">
+      <c r="G27" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H27" s="29" t="s">
+      <c r="H27" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I27" s="29" t="s">
+      <c r="I27" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="J27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K27" s="5" t="s">
+      <c r="K27" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="32.1" customHeight="1">
-      <c r="A28" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="B28" s="43" t="s">
-        <v>357</v>
-      </c>
-      <c r="K28" s="24" t="str">
+      <c r="A28" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="K28" s="23" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/email-marketing/general/creating-an-email/create-an-email.html","Create an Email")</f>
         <v>Create an Email</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="29.1" customHeight="1">
-      <c r="A29" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="B29" s="43" t="s">
-        <v>358</v>
-      </c>
-      <c r="K29" s="24" t="str">
+      <c r="A29" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="K29" s="23" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/email-marketing/general/email-editor-2/create-an-email-template.html","Create an Email Template")</f>
         <v>Create an Email Template</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="29.1" customHeight="1">
-      <c r="A30" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="B30" s="43" t="s">
-        <v>360</v>
-      </c>
-      <c r="K30" s="24" t="s">
-        <v>361</v>
+      <c r="A30" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="K30" s="23" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="92.1" customHeight="1">
-      <c r="A31" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="B31" s="43" t="s">
-        <v>362</v>
+      <c r="A31" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A34" s="39" t="s">
-        <v>363</v>
-      </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
+      <c r="A34" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="29" t="s">
+      <c r="E35" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F35" s="29" t="s">
+      <c r="F35" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G35" s="29" t="s">
+      <c r="G35" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H35" s="29" t="s">
+      <c r="H35" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I35" s="29" t="s">
+      <c r="I35" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J35" s="5" t="s">
+      <c r="J35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K35" s="5" t="s">
+      <c r="K35" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="66.95" customHeight="1">
-      <c r="A36" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="B36" s="43" t="s">
-        <v>364</v>
-      </c>
-      <c r="K36" s="17" t="s">
-        <v>365</v>
-      </c>
-      <c r="L36" s="17"/>
+      <c r="A36" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="K36" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="L36" s="21"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1">
-      <c r="K37" s="24" t="s">
-        <v>366</v>
+      <c r="K37" s="23" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1">
-      <c r="K39" s="4"/>
+      <c r="K39" s="26"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A40" s="39" t="s">
-        <v>367</v>
-      </c>
-      <c r="B40" s="40"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
+      <c r="A40" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="B40" s="16"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="42" t="s">
+      <c r="B41" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="29" t="s">
+      <c r="E41" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F41" s="29" t="s">
+      <c r="F41" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G41" s="29" t="s">
+      <c r="G41" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H41" s="29" t="s">
+      <c r="H41" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I41" s="29" t="s">
+      <c r="I41" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J41" s="5" t="s">
+      <c r="J41" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K41" s="5" t="s">
+      <c r="K41" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="77.099999999999994" customHeight="1">
-      <c r="A42" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="B42" s="43" t="s">
-        <v>369</v>
-      </c>
-      <c r="K42" s="24" t="s">
-        <v>370</v>
-      </c>
-      <c r="L42" s="24" t="s">
-        <v>371</v>
-      </c>
-      <c r="M42" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="N42" s="24" t="s">
-        <v>373</v>
+      <c r="A42" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>387</v>
+      </c>
+      <c r="K42" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="L42" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="M42" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="N42" s="23" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="72" customHeight="1">
-      <c r="A43" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="B43" s="43" t="s">
-        <v>375</v>
-      </c>
-      <c r="K43" s="24" t="s">
-        <v>376</v>
+      <c r="A43" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="K43" s="23" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A44" s="11"/>
-      <c r="B44" s="43"/>
-      <c r="K44" s="4"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="20"/>
+      <c r="K44" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5451,196 +5610,196 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="22"/>
-    <col min="2" max="2" width="39" style="8" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="7"/>
-    <col min="4" max="5" width="31.42578125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="8" style="7" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="26.42578125" style="7" customWidth="1"/>
-    <col min="12" max="16384" width="14.42578125" style="7"/>
+    <col min="1" max="1" width="14.42578125" style="14"/>
+    <col min="2" max="2" width="39" style="13" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="2"/>
+    <col min="4" max="5" width="31.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="26.42578125" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A1" s="39" t="s">
-        <v>377</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
+      <c r="A1" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="21" customHeight="1">
-      <c r="A3" s="50" t="s">
-        <v>378</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>379</v>
+      <c r="A3" s="55" t="s">
+        <v>396</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="53.1" customHeight="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="6" t="s">
-        <v>380</v>
+      <c r="A4" s="55"/>
+      <c r="B4" s="7" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="30" customHeight="1">
-      <c r="A5" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>382</v>
+      <c r="A5" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A6" s="11"/>
-      <c r="B6" s="6"/>
-      <c r="K6" s="2"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="29" t="s">
-        <v>383</v>
-      </c>
-      <c r="F8" s="29" t="s">
+      <c r="E8" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="29" t="s">
+      <c r="I8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="59.1" customHeight="1">
-      <c r="A9" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="K9" s="2"/>
+      <c r="A9" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:11" ht="68.099999999999994" customHeight="1">
-      <c r="A10" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>386</v>
+      <c r="A10" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="84.95" customHeight="1">
-      <c r="A11" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>388</v>
+      <c r="A11" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="47.1" customHeight="1">
-      <c r="A12" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>390</v>
+      <c r="A12" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="42.95" customHeight="1">
-      <c r="A13" s="54" t="s">
-        <v>391</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>392</v>
+      <c r="A13" s="58" t="s">
+        <v>409</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="84" customHeight="1">
-      <c r="A14" s="54"/>
-      <c r="B14" s="8" t="s">
-        <v>393</v>
+      <c r="A14" s="58"/>
+      <c r="B14" s="13" t="s">
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -5661,4 +5820,369 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002AB93A25AFF156439850881F6A1EFB06" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="711c0aa484f22afeba0d38fa96483f3a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="42202dc8-22a4-46a3-a8c9-17b1c003c0dc" xmlns:ns3="d449adc5-a023-4a4e-b2f3-92dafbd76c81" xmlns:ns4="beb3ccd9-9cf9-40a9-923c-79c44a00fd08" xmlns:ns5="33fb364f-eb7c-4bb9-b0b8-427e41e01e9c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a2ced39c2ab41a51ac713b216d2129f6" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
+    <xsd:import namespace="42202dc8-22a4-46a3-a8c9-17b1c003c0dc"/>
+    <xsd:import namespace="d449adc5-a023-4a4e-b2f3-92dafbd76c81"/>
+    <xsd:import namespace="beb3ccd9-9cf9-40a9-923c-79c44a00fd08"/>
+    <xsd:import namespace="33fb364f-eb7c-4bb9-b0b8-427e41e01e9c"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:ab617b3f63244b6db64cb123f660ff50" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxKeywordTaxHTField" minOccurs="0"/>
+                <xsd:element ref="ns3:FeaturedContent" minOccurs="0"/>
+                <xsd:element ref="ns4:Conversations" minOccurs="0"/>
+                <xsd:element ref="ns5:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns5:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns5:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns5:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns5:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns5:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns5:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns5:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns5:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns5:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns5:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns5:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns5:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns5:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="42202dc8-22a4-46a3-a8c9-17b1c003c0dc" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="ab617b3f63244b6db64cb123f660ff50" ma:index="9" nillable="true" ma:taxonomy="true" ma:internalName="ab617b3f63244b6db64cb123f660ff50" ma:taxonomyFieldName="ContentCategories" ma:displayName="ContentCategories" ma:fieldId="{ab617b3f-6324-4b6d-b64c-b123f660ff50}" ma:taxonomyMulti="true" ma:sspId="4b1daa41-56b4-4620-81a0-b7316f7f93e2" ma:termSetId="c9e8762a-80f5-48ed-880b-c7e7db9e0d07" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="10" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{1b241479-8bf4-4227-9ea8-0830a42c16ab}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="42202dc8-22a4-46a3-a8c9-17b1c003c0dc">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxKeywordTaxHTField" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="TaxKeywordTaxHTField" ma:taxonomyFieldName="TaxKeyword" ma:displayName="Enterprise Keywords" ma:fieldId="{23f27201-bee3-471e-b2e7-b64fd8b7ca38}" ma:taxonomyMulti="true" ma:sspId="4b1daa41-56b4-4620-81a0-b7316f7f93e2" ma:termSetId="00000000-0000-0000-0000-000000000000" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="true" ma:isKeyword="true">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="24" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="25" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d449adc5-a023-4a4e-b2f3-92dafbd76c81" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="FeaturedContent" ma:index="13" nillable="true" ma:displayName="FeaturedContent" ma:default="0" ma:internalName="FeaturedContent">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Boolean"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="beb3ccd9-9cf9-40a9-923c-79c44a00fd08" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="Conversations" ma:index="14" nillable="true" ma:displayName="Conversations" ma:format="Hyperlink" ma:internalName="Conversations">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:URL">
+            <xsd:sequence>
+              <xsd:element name="Url" type="dms:ValidUrl" minOccurs="0" nillable="true"/>
+              <xsd:element name="Description" type="xsd:string" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="33fb364f-eb7c-4bb9-b0b8-427e41e01e9c" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="15" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="16" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="17" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="18" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="19" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="20" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="21" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="22" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="23" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="26" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="28" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="4b1daa41-56b4-4620-81a0-b7316f7f93e2" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="29" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="30" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="31" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Conversations xmlns="beb3ccd9-9cf9-40a9-923c-79c44a00fd08">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Conversations>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="33fb364f-eb7c-4bb9-b0b8-427e41e01e9c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <FeaturedContent xmlns="d449adc5-a023-4a4e-b2f3-92dafbd76c81">false</FeaturedContent>
+    <TaxCatchAll xmlns="42202dc8-22a4-46a3-a8c9-17b1c003c0dc" xsi:nil="true"/>
+    <ab617b3f63244b6db64cb123f660ff50 xmlns="42202dc8-22a4-46a3-a8c9-17b1c003c0dc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ab617b3f63244b6db64cb123f660ff50>
+    <TaxKeywordTaxHTField xmlns="42202dc8-22a4-46a3-a8c9-17b1c003c0dc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <SharedWithUsers xmlns="42202dc8-22a4-46a3-a8c9-17b1c003c0dc">
+      <UserInfo>
+        <DisplayName>Keith Gluck</DisplayName>
+        <AccountId>2043</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>John Dictson</DisplayName>
+        <AccountId>2160</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Steven Vanderberg</DisplayName>
+        <AccountId>69</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Sreekanth Reddy</DisplayName>
+        <AccountId>2587</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BA50067-5D0F-44CD-A2A0-83523A68FFE5}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28DD1AE0-EF0B-44F4-A43C-99503C6C3FFA}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92E375F1-38D8-42E2-8E03-ACB507462803}"/>
 </file>
--- a/help/marketo/getting-started/inheriting-a-marketo-engage-instance/assets/adobe-marketo-engage-inherited-instance-admin-checklist.xlsx
+++ b/help/marketo/getting-started/inheriting-a-marketo-engage-instance/assets/adobe-marketo-engage-inherited-instance-admin-checklist.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adobe.sharepoint.com/sites/dx-customer-marketing-adoption-retention/Shared Documents/TEAM USE - Adoption Programs/Adobe Marketo Engage Programs/Experience League/Inherited Instance/Documentation/Downloadable Assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adobe-my.sharepoint.com/personal/gluck_adobe_com/Documents/Desktop/GitHub/marketo.en/help/marketo/getting-started/inheriting-a-marketo-engage-instance/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00770D51-7F57-4E60-8C26-7148DE3F78F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="8_{00770D51-7F57-4E60-8C26-7148DE3F78F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86EC7345-3D7D-4C9E-9129-C07C13947941}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="27320" windowHeight="14860" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30465" yWindow="2235" windowWidth="24900" windowHeight="13005" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name=" Summary - Tasks in Progress" sheetId="1" r:id="rId1"/>
-    <sheet name="Admin Section" sheetId="2" r:id="rId2"/>
-    <sheet name="Database" sheetId="3" r:id="rId3"/>
-    <sheet name="Marketing Activities " sheetId="4" r:id="rId4"/>
+    <sheet name="Initial Setup Tasks" sheetId="1" r:id="rId1"/>
+    <sheet name="User Setup" sheetId="7" r:id="rId2"/>
+    <sheet name="Admin Section" sheetId="2" r:id="rId3"/>
+    <sheet name="Database" sheetId="3" r:id="rId4"/>
     <sheet name="Design Studio" sheetId="5" r:id="rId5"/>
-    <sheet name="Document your setup" sheetId="6" r:id="rId6"/>
+    <sheet name="Marketing Activities " sheetId="4" r:id="rId6"/>
+    <sheet name="Analytics" sheetId="9" r:id="rId7"/>
+    <sheet name="Document your setup" sheetId="10" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">' Summary - Tasks in Progress'!$E$1:$E$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Initial Setup Tasks'!$E$1:$E$3</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -44,14 +46,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="532">
   <si>
     <t>Task</t>
   </si>
   <si>
-    <t>URL/Area in Instance</t>
-  </si>
-  <si>
     <t>Priority</t>
   </si>
   <si>
@@ -67,12 +66,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>[Example] Update authorized support contact</t>
-  </si>
-  <si>
-    <t>Support Portal</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
@@ -82,35 +75,16 @@
     <t>Complete</t>
   </si>
   <si>
-    <t>[Example] Add tokenized unsubscribe footers to emails</t>
-  </si>
-  <si>
-    <t>Marketing Activities</t>
-  </si>
-  <si>
     <t>Medium (4.5-15 hours)</t>
   </si>
   <si>
     <t>In Progress</t>
   </si>
   <si>
-    <t>Check with legal team on unsubscribe and privacy language</t>
-  </si>
-  <si>
-    <t>[Example] Create tokenized program templates</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
     <t>High (15+ hours)</t>
   </si>
   <si>
     <t>Not Started</t>
-  </si>
-  <si>
-    <t>Will improve program consistency and efficiency of builds. 
-Need inventory of program types/structures.</t>
   </si>
   <si>
     <t xml:space="preserve">Marketo Engage on Adobe Identify Management set-up </t>
@@ -1294,65 +1268,475 @@
     <t>Data</t>
   </si>
   <si>
-    <t>Input</t>
-  </si>
-  <si>
-    <t>• Which systems feed data into Marketo Engage?</t>
-  </si>
-  <si>
-    <t>• Are they loading data into programs or the database? If programs, which ones?
-☛Action Item: Create a data dictionary/field mapping table between systems.</t>
-  </si>
-  <si>
-    <t>Output</t>
-  </si>
-  <si>
-    <t>• Which systems receive data from Marketo Engage?</t>
-  </si>
-  <si>
-    <t>URL to the Documentation</t>
-  </si>
-  <si>
-    <t>Data Dictionary</t>
-  </si>
-  <si>
-    <t>• Is there a separate data dictionary explaining the fields available?
-- If not, consider creating one in a folder accessible to your Marketing Operations team.</t>
-  </si>
-  <si>
-    <t>• Do you have robust documentation of how your Marketo Engage instance is organized and why?
-☛Action Item: Create documentation that contains folder structure, naming convention, and channels used in your instance.</t>
-  </si>
-  <si>
     <t>Changelog</t>
   </si>
   <si>
-    <t>• Do you have a changelog where you can document what's changing in your instance and why?
-☛Action Item: Create a changelog and document changes made to your instance configuration.</t>
-  </si>
-  <si>
     <t>Playbooks</t>
   </si>
   <si>
-    <t>• Does your organization have a User or Admin Playbook?
-- If so, update those accordingly.</t>
-  </si>
-  <si>
     <t>Conversations with internal teams</t>
   </si>
   <si>
-    <t>• What are the internal expectations of your company's Marketing team? Do they match what Marketo Engage is delivering?</t>
-  </si>
-  <si>
-    <t>• Which teams are stakeholders in your Marketo Engage instance?
-☛Action Item: Document the goals and expectations of your key stakeholders and update them as you check in with your counterparts throughout the year.</t>
+    <t>☛NOTE:Your new Marketo Engage subscriptions are onboarded to Adobe Identity Management System (IMS). Proceed to the following user management review in Adobe Admin Console.</t>
+  </si>
+  <si>
+    <t>Action Item</t>
+  </si>
+  <si>
+    <t>Date of Completion</t>
+  </si>
+  <si>
+    <t>Subscription &amp; Marketo Engage Product Admin</t>
+  </si>
+  <si>
+    <t>• Confirm you've been granted an Adobe Product Admin role by your Adobe Org System Admin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• If not, contact Adobe Account team or send an email to marketocares@marketo.com to find out who at your organization has Adobe Admin Console System Admin privileges. </t>
+  </si>
+  <si>
+    <t>Contact Adobe support</t>
+  </si>
+  <si>
+    <t>• Accept the 'Marketo Engage Product Admin' invite to activate your Adobe ID. The welcome email is sent when the role is assigned in the Adobe Admin Console.</t>
+  </si>
+  <si>
+    <t>Product Profiles</t>
+  </si>
+  <si>
+    <t>• Assign all desired users to the Marketo Engage Product Profile in Adobe Admin Console.</t>
+  </si>
+  <si>
+    <t>Create a Product Profile</t>
+  </si>
+  <si>
+    <t>• You cannot assign users' roles in Marketo Engage &gt; Admin &gt; Users &amp; Roles before adding them to a Product Profile.</t>
+  </si>
+  <si>
+    <t>• Each subscription will be a standalone Product Profile. If an undesired user is added to multiple Product Profiles (e.g., production and testing sandbox), you must delete the user from all Product Profiles. Otherwise, they will still have access to Marketo Engage.</t>
+  </si>
+  <si>
+    <t>• Create a policy on when to create a user.</t>
+  </si>
+  <si>
+    <t>Add or Remove a User in Adobe Admin Console</t>
+  </si>
+  <si>
+    <t>• Create a policy on when to remove users.</t>
+  </si>
+  <si>
+    <t>• Determine who should have Adobe System Admin and Marketo Engage Product Admin permissions.</t>
+  </si>
+  <si>
+    <t>Profile Levels</t>
+  </si>
+  <si>
+    <t>• Add users to the desired Product Profile.</t>
+  </si>
+  <si>
+    <t>• Create one API user for each API use case.</t>
+  </si>
+  <si>
+    <t>• Use the Adobe User Management API to invite, update, and delete users.</t>
+  </si>
+  <si>
+    <t>Adobe User Management APIs</t>
+  </si>
+  <si>
+    <t>• Use the Adobe User Management API to add or remove roles (e.g., Administrators, Support Admins, Developers).</t>
+  </si>
+  <si>
+    <t>Create a support ticket with Admin Console</t>
+  </si>
+  <si>
+    <t>Product Support Administrator</t>
+  </si>
+  <si>
+    <t>• To submit a support ticket in the Adobe Admin Console, you need to have the 'Product Support Administrator' role assigned by a System Administrator to the subscriptions you manage. Only a System Administrator in your organization can assign you to this role.</t>
+  </si>
+  <si>
+    <t>• You might have received an email from the System Administrator stating that you are the Support Administrator for your Marketo Engage subscription. If so, click 'Get Started' in the email to join the organization.</t>
+  </si>
+  <si>
+    <t>Assign the Support admin role</t>
+  </si>
+  <si>
+    <t>• Determine the appropriate contacts (with at least one backup contact) and have the System Administrator assign the Product Support Admin role accordingly.</t>
+  </si>
+  <si>
+    <t>Dynamic Chat on Adobe Identity Management Setup</t>
+  </si>
+  <si>
+    <t>☛NOTE: To use Dynamic Chat, the native conversation automation channel in Marketo Engage, proceed with the user permission setup following the steps below in the Adobe Admin Console.</t>
+  </si>
+  <si>
+    <t>Subscription &amp; Dynamic Chat Product Admin (if applicable)</t>
+  </si>
+  <si>
+    <t>• Accept the 'Dynamic Chat Product Admin' invite. The welcome email is sent when Dynamic Chat is enabled in your Marketo Engage instance and you are designated as a System Admin.</t>
+  </si>
+  <si>
+    <t>Initial Setup</t>
+  </si>
+  <si>
+    <t>• Assign all desired users to Dynamic Chat's Product Profile in Adobe Admin Console.</t>
+  </si>
+  <si>
+    <t>• If an undesirable user is added to multiple Product Profiles, you must delete the user from all product profiles. Otherwise, they will still have access to Dynamic Chat.</t>
+  </si>
+  <si>
+    <t>• You can edit Product Profiles in Dynamic Chat and create a custom profile with a custom set of permissions available within your subscription.</t>
+  </si>
+  <si>
+    <t>List of Permissions</t>
+  </si>
+  <si>
+    <t>• Create a policy on when to add and remove a chat user.</t>
+  </si>
+  <si>
+    <t>• Create a policy on who should have Adobe Dynamic Chat Product Admin permissions.</t>
+  </si>
+  <si>
+    <t>Set up Ongoing System Updates and Communications</t>
+  </si>
+  <si>
+    <t>• Subscribe to Adobe Marketo Engage Status updates.</t>
+  </si>
+  <si>
+    <t>• Subscribe to admin notifications for critical issues such as errors in your Smart Campaigns, and critical issues found with the CRM sync.</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>Organization: Naming, folders, and archiving</t>
+  </si>
+  <si>
+    <t>• Identify reports that should be shared with different user groups within your organization (e.g., sales team, marketing leadership) and organize the reports by folder inside the Group Reports folder in Analytics for Global Reports.</t>
+  </si>
+  <si>
+    <t>Workspaces (if applicable)</t>
+  </si>
+  <si>
+    <t>• Replicate the Global Reports and folder structure across workspaces to maintain consistent reporting for your teams. These reports would be in the Group Reports folder.</t>
+  </si>
+  <si>
+    <t>My Reports</t>
+  </si>
+  <si>
+    <t>• Identify and create the reports needed for use in the My Reports section. Use this private report section as your sandbox for Global Reports. They're are only available to the user creating the report.</t>
+  </si>
+  <si>
+    <t>Understanding My Reports and Group Reports</t>
+  </si>
+  <si>
+    <t>• Use your organization's naming convention to identify the report and usage so you can reconcile reports in My Reports with reports in Group Reports.</t>
+  </si>
+  <si>
+    <t>Group Reports</t>
+  </si>
+  <si>
+    <t>Clone a Report to Group Reports</t>
+  </si>
+  <si>
+    <t>Report Email, Campaign Performance Across Workspaces</t>
+  </si>
+  <si>
+    <t>☛TIP: Create the Smart List with the filters that you want to include in most of your reports in the Database section. When you need to update the Smart List criteria, you could update it in one place instead of updating it in all the Global Reports.</t>
+  </si>
+  <si>
+    <t>Subscriptions</t>
+  </si>
+  <si>
+    <t>• Use subscriptions to distribute data to need-to-know people in your organization without exhausting a named user license.</t>
+  </si>
+  <si>
+    <t>☛TIP: If you want people to access the real-time report data, you'll need to add them as users so they can view the report.</t>
+  </si>
+  <si>
+    <t>• Set up subscriptions in the desired cadence (daily/weekly/monthly) for each team's ongoing monitoring. You can also view all your subscriptions in one place under the Subscriptions tab in Analytics.</t>
+  </si>
+  <si>
+    <t>Subscribe to a Basic Report</t>
+  </si>
+  <si>
+    <t>Manage Report Subscriptions</t>
+  </si>
+  <si>
+    <t>Global Reports</t>
+  </si>
+  <si>
+    <t>• Create Global, Workspace/Business Unit-wide reports with the correct emails selected.</t>
+  </si>
+  <si>
+    <t>• Create a local Email Performance Report in all your cloneable program templates.</t>
+  </si>
+  <si>
+    <t>• Use a relevant timeframe (e.g., YTD, last 90 days, etc.) for the report to provide an accurate view of standard email engagement and deliverability metrics.</t>
+  </si>
+  <si>
+    <t>Change a Report Time Frame</t>
+  </si>
+  <si>
+    <t>☛TIP: Turn on 'Bot Activity' filtering in Admin &gt; Email to avoid logging, or identify if logging is enabled for bot activities. Include the filter to allow only Opened/Clicked activities with the "Is Bot Activity" constrained set to "False" in the Smart List of your cloneable Global Reports.</t>
+  </si>
+  <si>
+    <t>Filtering Email Bot Activity</t>
+  </si>
+  <si>
+    <t>Filtering email bot activity filters and triggers</t>
+  </si>
+  <si>
+    <t>People Performance Report</t>
+  </si>
+  <si>
+    <t>• Measure people created by week or month. This report will provide you with a measure of your Database growth rate and whether you are approaching your Database size limit.</t>
+  </si>
+  <si>
+    <t>• Filter the metrics in People Performance Reports by using your Smart Lists as custom columns.</t>
+  </si>
+  <si>
+    <t>Add Custom Columns to a Person Report</t>
+  </si>
+  <si>
+    <t>☛TIP: Create Smart Lists for the custom columns you want to add to the People Performance Report in the Database instead of Marketing Activities so you can see the Smart List name properly and clearly when it's selected in the report.</t>
+  </si>
+  <si>
+    <t>Program Performance Report</t>
+  </si>
+  <si>
+    <t>☛NOTE: This report requires that you have your channels, progression statuses, and success steps defined in Admin &gt; Tags.</t>
+  </si>
+  <si>
+    <t>• Measure the effectiveness of your marketing tactics within selective programs.</t>
+  </si>
+  <si>
+    <t>Create a Program Performance Report</t>
+  </si>
+  <si>
+    <t>• Manage program membership (using Smart Campaigns to update acquisition program, status, success statuses) according to best practices within Marketing Activities.</t>
+  </si>
+  <si>
+    <t>• Measure based on costs for the current year and rolling 12 months. Remember that maintaining Period Costs is critical to leveraging the Program Performance Report.</t>
+  </si>
+  <si>
+    <t>Using Period Costs in a Program</t>
+  </si>
+  <si>
+    <t>☛TIP: To aggregate and view any imported lists in the Program Performance Reports, ensure your teams select the appropriate Acquisition Program for tagging. Consider creating a default program to be selected as the Acquisition program when the lists imported don't apply to any channel. This ensures any person imported has a valid acquisition program related to source, business unit, channel, etc., instead of a blank value.</t>
+  </si>
+  <si>
+    <t>Import a List of People</t>
+  </si>
+  <si>
+    <t>Create and measure a default program</t>
+  </si>
+  <si>
+    <t>Landing Page Performance Report</t>
+  </si>
+  <si>
+    <t>• Create the Landing Page Performance Report as a global report so you can filter and review the numbers of all your Design Studio/Marketing Activities Landing Pages in one place.</t>
+  </si>
+  <si>
+    <t>• For programs with Landing Page(s), consider creating a dedicated local report within the program template so you can review the performance at the program level.</t>
+  </si>
+  <si>
+    <t>Filter a Landing Page Performance Report</t>
+  </si>
+  <si>
+    <t>Web Page Activity Report</t>
+  </si>
+  <si>
+    <t>☛NOTE: Only web pages (external and Marketo Landing Pages) that have the Munchkin JavaScript enabled will be tracked in this report. Consider placing the JavaScript code in the Tag Management Platform, such as Google Tag Manager, to avoid hardcoding the code on every web page.</t>
+  </si>
+  <si>
+    <t>Integrating Munchkin with Google Tag Manager</t>
+  </si>
+  <si>
+    <t>• Create the Web Page Activity Report as a global report so you can review the numbers of all your web pages in one place. Note that your external web page activities are only reflected in the Web Page Activity reports.</t>
+  </si>
+  <si>
+    <t>Local Reports</t>
+  </si>
+  <si>
+    <t>Email Link Performance Report</t>
+  </si>
+  <si>
+    <t>• Create an Email Link Performance Report within programs sending emails and your drip campaigns to provide you with insights into the links people click on in your email sends.</t>
+  </si>
+  <si>
+    <t>Campaign Activity Report</t>
+  </si>
+  <si>
+    <t>• Create the Campaign Activity Report and choose a period within your operational folder in Marketing Activities.</t>
+  </si>
+  <si>
+    <t>• Set up reports to monitor the triggers for each use case and apply campaign filters (e.g., Behavior Scoring triggers, Lifecycle qualification triggers, Interesting Moments triggers).</t>
+  </si>
+  <si>
+    <t>Filter a Campaign Activity Report</t>
+  </si>
+  <si>
+    <t>Engagement Stream Performance Report (if applicable)</t>
+  </si>
+  <si>
+    <t>• Create an Engagement Stream Performance Report to measure the effectiveness of content and stream deployed within your Engagement Program.</t>
+  </si>
+  <si>
+    <t>• Consider using the "Segmentation" filter in the report's Setup tab and grouping the reporting data by the segment (e.g., person source, industry) used in your Engagement Program. This will help get deeper insights into each segment's engagement patterns, guiding you to make strategic changes to improve your Engagement program (content, stream, stream cadence, etc.).</t>
+  </si>
+  <si>
+    <t>Group Email Reports by Segmentations</t>
+  </si>
+  <si>
+    <t>Create a Segmentation</t>
+  </si>
+  <si>
+    <t>Allowlist Domains</t>
+  </si>
+  <si>
+    <t>Add CNAME for Landing Pages</t>
+  </si>
+  <si>
+    <t>Add CNAME for Email Tracking Links</t>
+  </si>
+  <si>
+    <t>Notify Your Marketing Team</t>
+  </si>
+  <si>
+    <t>Contact Adobe Customer Support to start the process of provisioning an SSL Certificate.</t>
+  </si>
+  <si>
+    <t>Allowlist Marketo Engage Ips</t>
+  </si>
+  <si>
+    <t>Set up SPF</t>
+  </si>
+  <si>
+    <t>Set up DKIM</t>
+  </si>
+  <si>
+    <t>Set up DMARC</t>
+  </si>
+  <si>
+    <t>Set up MX Records for Your Domain</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• Use a report naming convention to differentiate reports in the Global Reports tab.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="AdobeClean-Regular"/>
+      </rPr>
+      <t>An example of good naming convention practice is [Report Type] [Global vs. BU-Specific Tag] [Report Description] such as [Email Performance]-[Global]-[180 Days Email Engagement].</t>
+    </r>
+  </si>
+  <si>
+    <t>• Archiving should be limited to the Global Reports folder, as these are always-on reports. 
+- Limit archiving to organizational changes such as reducing or adding relevant business units if you are reporting based on a business unit structure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Group Reports are your organization's Global Reports and should report on overall activity for your organization.
+</t>
+  </si>
+  <si>
+    <t>• Consider creating the following cloneable core reports you expect each business unit to use most often to reduce the time needed to pull the report and ensure data correctness. See details in the Global Reports table below. 
+- People Performance Report (all-time and time-based) by source, month
+- Program Performance Report (by cost month, time-based)
+- Email Performance Report (time-based)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Turn on "Global Reporting" in the report's Setup tab to include the data from all your workspaces in the Email Performance and Email Link Performance reports. If you have more than one workspace, you only need to enable it in the default workspace.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subscriptions	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Align with your marketing leader regarding people who should review report results and their cadence during implementation.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">☛NOTE: It's recommended to have a proper channel and tag strategy for every Marketo Engage implementation before you can track the people acquired and the ROI of your marketing investments by channel.
+</t>
+  </si>
+  <si>
+    <t>• Determine the criteria you will use to measure the performance of your lead acquisition programs and create your time-based (current year, last rolling 12 months view, or 180 days) standard reports based on these metrics:
+- Acquisition Program: Marketo Engage program that is credited for acquiring the person.
+- Person Source: The source category for how the record came to be known to your database (based on the source list of values in your CRM)</t>
+  </si>
+  <si>
+    <t>List Import</t>
+  </si>
+  <si>
+    <t>• Gather a list of data sources that records will be pulled from to import into Marketo Engage.</t>
+  </si>
+  <si>
+    <t>• If you are importing from multiple data sources, consider using Master Lists or creating a Custom Field on the person record to denote the data source.</t>
+  </si>
+  <si>
+    <t>Create a Custom Field in Marketo</t>
+  </si>
+  <si>
+    <t>Database Integration</t>
+  </si>
+  <si>
+    <t>• If leveraging the native sync between Marketo Engage and your CRM, carefully consider what fields you want to sync between systems. Not every field needs to be synced, so be strategic about your data flows.</t>
+  </si>
+  <si>
+    <t>Users &amp; Roles</t>
+  </si>
+  <si>
+    <t>• Document the current users in your instance for safety reasons. The following details should be included at a minimum (and are all visible and downloadable by going to Admin &gt; Users &amp; Roles):
+- Name
+- Email
+- Login
+- Role
+- Access Expiration Date
+- User Created Date
+- Most Recent Log In Date</t>
+  </si>
+  <si>
+    <t>Export a List of Users and Roles</t>
+  </si>
+  <si>
+    <t>• As a Marketo Engage Product Admin, develop an internal process to audit and update the Marketo Engage user list at a regular cadency. To make changes to the list of users in Adobe Admin Console, consider bulk actions, such as uploading a .CSV, using the User Management REST API, etc.</t>
+  </si>
+  <si>
+    <t>CSV Bulk upload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Document the agreed folder structure, standard naming conventions for programs, assets, etc, and the why behind the decisions made. </t>
+  </si>
+  <si>
+    <t>Best practices to organize a new Marketo Engage instance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Create a changelog where you can document what's changing in your instance and the why of the modifications. </t>
+  </si>
+  <si>
+    <t>Develop an instance governance guide with documentation</t>
+  </si>
+  <si>
+    <t>• Create a User Playbook or Admin Playbook for internal users onboarding to the instance.</t>
+  </si>
+  <si>
+    <t>• Start to align the internal marketing team's expectations of Marketo Engage with Marketo Engage's capabilities.</t>
+  </si>
+  <si>
+    <t>• Identify the teams that will be your stakeholders in the Marketo Engage instance and document their goals to achieve using Marketo Engage as a technology.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1429,6 +1813,18 @@
       <color theme="0" tint="-0.34998626667073579"/>
       <name val="AdobeClean-Regular"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="AdobeClean-Regular"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="AdobeClean-Regular"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1475,7 +1871,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1537,12 +1933,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1596,14 +1986,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1614,6 +2001,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1623,7 +2011,76 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1873,17 +2330,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="69.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" style="2"/>
     <col min="6" max="6" width="10.140625" style="2" customWidth="1"/>
@@ -1891,120 +2348,136 @@
     <col min="8" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="42"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-    </row>
-    <row r="2" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="G2" s="42"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="G3" s="42"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-    </row>
-    <row r="3" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A3" s="44" t="s">
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A4" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44" t="s">
-        <v>21</v>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E4" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{A31D1C0E-EA43-FB48-A2B2-A586563A15D9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12:E1048576 D1:D11" xr:uid="{A31D1C0E-EA43-FB48-A2B2-A586563A15D9}">
       <formula1>"Complete, In Progress, Not Started"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{9F7910D6-5414-7E43-87CB-B5A8DEDA1530}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:D1048576 C1:C11" xr:uid="{9F7910D6-5414-7E43-87CB-B5A8DEDA1530}">
       <formula1>"Low (0-4 hours), Medium (4.5-15 hours), High (15+ hours)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{AF08D95C-B9B6-3548-A958-053AFCF3C55D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:C1048576 B1:B11" xr:uid="{AF08D95C-B9B6-3548-A958-053AFCF3C55D}">
       <formula1>"High, Medium, Low"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2013,6 +2486,1052 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD8317F-C38E-4CB4-9FF8-98BE03BFA9B0}">
+  <dimension ref="A1:S38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="50" t="s">
+        <v>390</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>391</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+    </row>
+    <row r="4" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="56" t="s">
+        <v>393</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="56"/>
+      <c r="B5" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+    </row>
+    <row r="6" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="56"/>
+      <c r="B6" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+    </row>
+    <row r="7" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="52" t="s">
+        <v>398</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+    </row>
+    <row r="8" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="52"/>
+      <c r="B8" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+    </row>
+    <row r="9" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="52"/>
+      <c r="B9" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="8" t="str">
+        <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/administration/marketo-with-adobe-identity/add-or-remove-a-user.html","Add or Remove a User in Adobe Admin Console")</f>
+        <v>Add or Remove a User in Adobe Admin Console</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="52"/>
+      <c r="B11" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+    </row>
+    <row r="12" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="52"/>
+      <c r="B12" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="52"/>
+      <c r="B13" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="52"/>
+      <c r="B14" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+    </row>
+    <row r="16" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="52"/>
+      <c r="B16" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+    </row>
+    <row r="17" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" s="52" t="s">
+        <v>414</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+    </row>
+    <row r="18" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="52"/>
+      <c r="B18" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+    </row>
+    <row r="19" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="52"/>
+      <c r="B19" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" s="50" t="s">
+        <v>419</v>
+      </c>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="57"/>
+      <c r="S21" s="57"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="57"/>
+      <c r="R22" s="57"/>
+      <c r="S22" s="57"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="58" t="s">
+        <v>391</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+    </row>
+    <row r="24" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="56" t="s">
+        <v>421</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+    </row>
+    <row r="25" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="56"/>
+      <c r="B25" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+    </row>
+    <row r="26" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="52" t="s">
+        <v>398</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+    </row>
+    <row r="27" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="52"/>
+      <c r="B27" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+    </row>
+    <row r="28" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="52"/>
+      <c r="B28" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="23" t="s">
+        <v>427</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+    </row>
+    <row r="30" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="52"/>
+      <c r="B30" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" s="52"/>
+      <c r="B31" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32" s="6"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" s="50" t="s">
+        <v>430</v>
+      </c>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="58" t="s">
+        <v>391</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="8" t="str">
+        <f>HYPERLINK("https://nation.marketo.com/t5/knowledgebase/how-to-subscribe-to-status-page-notifications/ta-p/296749","How to Subscribe to Status Page Notifications")</f>
+        <v>How to Subscribe to Status Page Notifications</v>
+      </c>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+    </row>
+    <row r="36" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F36" xr:uid="{694F99FA-4DD1-47AD-9639-9772E2E95362}">
+      <formula1>"Low (0-4 hours), Medium (4.5-15 hours), High (15+ hours)"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G36" xr:uid="{8DA65DAA-1F78-4A18-8249-6C676ED07AFA}">
+      <formula1>"Complete, In Progress, Not Started"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E36" xr:uid="{6C349506-2D56-47D6-9A2E-67914FEF2F09}">
+      <formula1>"High, Medium, Low"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="J4" r:id="rId1" xr:uid="{6D3EDD84-EA19-4B4A-9807-D8FFE5712A5A}"/>
+    <hyperlink ref="J6" r:id="rId2" location="initial-setup" xr:uid="{6E749F35-4926-4924-9E8C-2500050B1E66}"/>
+    <hyperlink ref="J15" r:id="rId3" xr:uid="{2D4454EB-AC8A-4FF8-91F4-C368959E59F8}"/>
+    <hyperlink ref="J5" r:id="rId4" xr:uid="{DE92996D-BF8B-444C-A8D7-FDC5623CC362}"/>
+    <hyperlink ref="J7" r:id="rId5" location="create-a-product-profile" xr:uid="{1B03FEBA-A0D1-4A03-B436-A36575C128F3}"/>
+    <hyperlink ref="J12" r:id="rId6" location="profile-levels" xr:uid="{5084C7EB-6BEC-4E9E-A80C-7B75D94A444E}"/>
+    <hyperlink ref="J16" r:id="rId7" location="create-a-support-ticket-with-admin-console" xr:uid="{7301C37E-7CE6-4407-9F37-9B90B111E9FA}"/>
+    <hyperlink ref="J18" r:id="rId8" location="create-a-support-ticket-with-admin-console" display="Create a support ticket with Admin Console" xr:uid="{93283133-34D3-44EE-A57D-E112E1B14CD4}"/>
+    <hyperlink ref="J24" r:id="rId9" xr:uid="{DA89044C-A27D-49F5-955C-500D47CEBDA2}"/>
+    <hyperlink ref="J25" r:id="rId10" xr:uid="{CBAFC322-4E5F-4326-9A33-4A898E6130D5}"/>
+    <hyperlink ref="J27" r:id="rId11" location="edit-existing-permissions" xr:uid="{6F35F5AD-1D4F-46AC-9243-573BBB7C7F26}"/>
+    <hyperlink ref="J28" r:id="rId12" location="list-of-permissions" xr:uid="{608D8D3B-D774-43C3-97F2-3DD7E79C627B}"/>
+    <hyperlink ref="J29" r:id="rId13" xr:uid="{5FCD67CC-259F-4AC4-A121-E7A23E289246}"/>
+    <hyperlink ref="A2" r:id="rId14" display="https://experienceleague.adobe.com/en/docs/marketo/using/product-docs/administration/marketo-with-adobe-identity/adobe-identity-management-overview" xr:uid="{54857271-A316-4CA6-A03F-E64D676A018A}"/>
+    <hyperlink ref="J36" r:id="rId15" location="subscribe-to-notifications" xr:uid="{07AF5DC4-5E5C-40F0-9BAB-1546A6DE5C11}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2020,10 +3539,10 @@
   <dimension ref="A1:AE139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.28515625" style="14" customWidth="1"/>
     <col min="2" max="2" width="53" style="2" customWidth="1"/>
@@ -2039,1712 +3558,1714 @@
     <col min="12" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="12.95">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+    </row>
+    <row r="2" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+    </row>
+    <row r="3" spans="1:31" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-    </row>
-    <row r="2" spans="1:31" ht="14.1">
-      <c r="A2" s="4" t="s">
+    </row>
+    <row r="4" spans="1:31" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="52"/>
+      <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="K4" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="5" spans="1:31" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-    </row>
-    <row r="3" spans="1:31" ht="69.95">
-      <c r="A3" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" ht="56.1">
-      <c r="A4" s="55"/>
-      <c r="B4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" ht="111.95">
-      <c r="A5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="40" t="str">
+      <c r="K5" s="38" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/administration/marketo-with-adobe-identity/add-or-remove-a-user.html","Add or Remove a User in Adobe Admin Console")</f>
         <v>Add or Remove a User in Adobe Admin Console</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="69.95">
+    <row r="6" spans="1:31" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" ht="12.95">
+        <v>28</v>
+      </c>
+      <c r="K6" s="38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:31" ht="12.95">
-      <c r="A8" s="53" t="s">
+    <row r="8" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="35"/>
+      <c r="AD8" s="35"/>
+      <c r="AE8" s="35"/>
+    </row>
+    <row r="9" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35"/>
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="35"/>
+      <c r="AE9" s="35"/>
+    </row>
+    <row r="10" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35"/>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="35"/>
+      <c r="AA10" s="35"/>
+      <c r="AB10" s="35"/>
+      <c r="AC10" s="35"/>
+      <c r="AD10" s="35"/>
+      <c r="AE10" s="35"/>
+    </row>
+    <row r="11" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="52"/>
+      <c r="B12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="52"/>
+      <c r="B13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="45"/>
+    </row>
+    <row r="14" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="52"/>
+      <c r="B14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="37"/>
-      <c r="AC8" s="37"/>
-      <c r="AD8" s="37"/>
-      <c r="AE8" s="37"/>
-    </row>
-    <row r="9" spans="1:31" ht="14.1">
-      <c r="A9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="1" t="s">
+    </row>
+    <row r="15" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="52"/>
+      <c r="B15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="52"/>
+      <c r="B16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" s="38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="K17" s="45"/>
+    </row>
+    <row r="18" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18" s="38"/>
+    </row>
+    <row r="19" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="52"/>
+      <c r="B19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" s="38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="52"/>
+      <c r="B20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K20" s="45"/>
+    </row>
+    <row r="21" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="52"/>
+      <c r="B21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K21" s="38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="52"/>
+      <c r="B22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K22" s="38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="52"/>
+      <c r="B23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K23" s="38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K24" s="38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="52"/>
+      <c r="B26" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K27" s="38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="52"/>
+      <c r="B28" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K28" s="38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+    </row>
+    <row r="31" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K9" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="37"/>
-      <c r="AA9" s="37"/>
-      <c r="AB9" s="37"/>
-      <c r="AC9" s="37"/>
-      <c r="AD9" s="37"/>
-      <c r="AE9" s="37"/>
-    </row>
-    <row r="10" spans="1:31" ht="12.95">
-      <c r="A10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="37"/>
-      <c r="AB10" s="37"/>
-      <c r="AC10" s="37"/>
-      <c r="AD10" s="37"/>
-      <c r="AE10" s="37"/>
-    </row>
-    <row r="11" spans="1:31" ht="14.1">
-      <c r="A11" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" s="40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" ht="14.1">
-      <c r="A12" s="55"/>
-      <c r="B12" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K12" s="40" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" ht="14.1">
-      <c r="A13" s="55"/>
-      <c r="B13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K13" s="47"/>
-    </row>
-    <row r="14" spans="1:31" ht="14.1">
-      <c r="A14" s="55"/>
-      <c r="B14" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K14" s="40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" ht="14.1">
-      <c r="A15" s="55"/>
-      <c r="B15" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K15" s="40" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" ht="14.1">
-      <c r="A16" s="55"/>
-      <c r="B16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K16" s="40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="12.95">
-      <c r="A17" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="K17" s="47"/>
-    </row>
-    <row r="18" spans="1:11" ht="14.1">
-      <c r="A18" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K18" s="40"/>
-    </row>
-    <row r="19" spans="1:11" ht="14.1">
-      <c r="A19" s="55"/>
-      <c r="B19" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K19" s="40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="14.1">
-      <c r="A20" s="55"/>
-      <c r="B20" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K20" s="47"/>
-    </row>
-    <row r="21" spans="1:11" ht="14.1">
-      <c r="A21" s="55"/>
-      <c r="B21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K21" s="40" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="27.95">
-      <c r="A22" s="55"/>
-      <c r="B22" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K22" s="40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="56.1">
-      <c r="A23" s="55"/>
-      <c r="B23" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K23" s="40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="14.1">
-      <c r="A24" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K24" s="40" t="s">
+      <c r="K31" s="43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="14.1">
-      <c r="A25" s="55" t="s">
+      <c r="B32" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="14.1">
-      <c r="A26" s="55"/>
-      <c r="B26" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="27.95">
-      <c r="A27" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K27" s="40" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="14.1">
-      <c r="A28" s="55"/>
-      <c r="B28" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="K28" s="40" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="12.95">
-      <c r="A30" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
-    </row>
-    <row r="31" spans="1:11" ht="14.1">
-      <c r="A31" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K31" s="45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="27.95">
-      <c r="A32" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="K32" s="40" t="str">
+      <c r="K32" s="38" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/administration/audit-trail/audit-trail-overview.html#audit-trail-components","Audit Trail Components")</f>
         <v>Audit Trail Components</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="12.95">
-      <c r="A34" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="54"/>
-    </row>
-    <row r="35" spans="1:12" ht="14.1">
+    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+    </row>
+    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="I35" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="J35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K35" s="45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="14.1">
-      <c r="A36" s="55" t="s">
-        <v>77</v>
+      <c r="K35" s="43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="52" t="s">
+        <v>68</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K36" s="40" t="s">
-        <v>79</v>
+        <v>69</v>
+      </c>
+      <c r="K36" s="38" t="s">
+        <v>70</v>
       </c>
       <c r="L36" s="21"/>
     </row>
-    <row r="37" spans="1:12" ht="14.1">
-      <c r="A37" s="55"/>
+    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="52"/>
       <c r="B37" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K37" s="40" t="s">
-        <v>81</v>
+        <v>71</v>
+      </c>
+      <c r="K37" s="38" t="s">
+        <v>72</v>
       </c>
       <c r="L37" s="21"/>
     </row>
-    <row r="38" spans="1:12" ht="14.1">
-      <c r="A38" s="55"/>
+    <row r="38" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="52"/>
       <c r="B38" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K38" s="40" t="s">
-        <v>83</v>
+        <v>73</v>
+      </c>
+      <c r="K38" s="38" t="s">
+        <v>74</v>
       </c>
       <c r="L38" s="21"/>
     </row>
-    <row r="39" spans="1:12" ht="14.1">
-      <c r="A39" s="55"/>
+    <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="52"/>
       <c r="B39" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K39" s="48"/>
+        <v>75</v>
+      </c>
+      <c r="K39" s="46"/>
       <c r="L39" s="21"/>
     </row>
-    <row r="40" spans="1:12" ht="14.1">
-      <c r="A40" s="55"/>
+    <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="52"/>
       <c r="B40" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K40" s="40" t="str">
+        <v>76</v>
+      </c>
+      <c r="K40" s="38" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/administration/workspaces-and-person-partitions/allow-user-access-to-a-workspace.html","Allow User Access to Workspace")</f>
         <v>Allow User Access to Workspace</v>
       </c>
       <c r="L40" s="21"/>
     </row>
-    <row r="41" spans="1:12" ht="14.1">
-      <c r="A41" s="55" t="s">
-        <v>86</v>
+    <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="52" t="s">
+        <v>77</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="27.95">
-      <c r="A42" s="55"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="52"/>
       <c r="B42" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K42" s="47"/>
-    </row>
-    <row r="43" spans="1:12" ht="12.95">
+        <v>79</v>
+      </c>
+      <c r="K42" s="45"/>
+    </row>
+    <row r="43" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="3"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:12" ht="12.95">
-      <c r="A44" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="B44" s="54"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="54"/>
-      <c r="K44" s="54"/>
-    </row>
-    <row r="45" spans="1:12" ht="14.1">
+    <row r="44" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="51"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="51"/>
+    </row>
+    <row r="45" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="I45" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="J45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K45" s="45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="69.95">
+      <c r="K45" s="43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K46" s="40" t="str">
+        <v>81</v>
+      </c>
+      <c r="K46" s="38" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/administration/email-setup/enable-person-restrictions-for-smart-campaigns.html","Enable Person Restrictions for Smart Campaigns ")</f>
         <v xml:space="preserve">Enable Person Restrictions for Smart Campaigns </v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="12.95">
+    <row r="48" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
     </row>
-    <row r="49" spans="1:12" ht="12.95">
-      <c r="A49" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="B49" s="54"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="54"/>
-      <c r="K49" s="54"/>
-    </row>
-    <row r="50" spans="1:12" ht="14.1">
+    <row r="49" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49" s="51"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="51"/>
+      <c r="K49" s="51"/>
+    </row>
+    <row r="50" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="I50" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="J50" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K50" s="45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="56.1">
+      <c r="K50" s="43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K51" s="40" t="str">
+        <v>83</v>
+      </c>
+      <c r="K51" s="38" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/administration/email-setup/enable-communication-limits.html","Enable Communication Limits")</f>
         <v>Enable Communication Limits</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="12.95">
-      <c r="A53" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="B53" s="54"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="54"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="54"/>
-      <c r="J53" s="54"/>
-      <c r="K53" s="54"/>
-    </row>
-    <row r="54" spans="1:12" ht="14.1">
+    <row r="53" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" s="51"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="51"/>
+      <c r="H53" s="51"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="51"/>
+      <c r="K53" s="51"/>
+    </row>
+    <row r="54" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="H54" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="I54" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="J54" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K54" s="45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="27.95">
-      <c r="A55" s="55" t="s">
-        <v>93</v>
+      <c r="K54" s="43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="52" t="s">
+        <v>84</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K55" s="40" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="14.1">
-      <c r="A56" s="55"/>
+        <v>85</v>
+      </c>
+      <c r="K55" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="52"/>
       <c r="B56" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K56" s="40" t="str">
+        <v>87</v>
+      </c>
+      <c r="K56" s="38" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/administration/tags/managing-tag-values.html","Managing Tag Values")</f>
         <v>Managing Tag Values</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="14.1">
-      <c r="A57" s="55" t="s">
-        <v>97</v>
+    <row r="57" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="52" t="s">
+        <v>88</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="K57" s="40" t="str">
+        <v>89</v>
+      </c>
+      <c r="K57" s="38" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/administration/tags/create-a-program-channel.html","Create a Program Channel")</f>
         <v>Create a Program Channel</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="27.95">
-      <c r="A58" s="55"/>
+    <row r="58" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="52"/>
       <c r="B58" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K58" s="38" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="52"/>
+      <c r="B59" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J59" s="26"/>
+      <c r="K59" s="45"/>
+    </row>
+    <row r="60" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="52"/>
+      <c r="B60" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K60" s="45"/>
+    </row>
+    <row r="61" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A61" s="52"/>
+      <c r="B61" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K61" s="45"/>
+    </row>
+    <row r="62" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="52"/>
+      <c r="B62" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K62" s="45"/>
+    </row>
+    <row r="63" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K63" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="L63" s="21"/>
+    </row>
+    <row r="65" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A65" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="K58" s="40" t="s">
+      <c r="B65" s="51"/>
+      <c r="C65" s="51"/>
+      <c r="D65" s="51"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="51"/>
+      <c r="G65" s="51"/>
+      <c r="H65" s="51"/>
+      <c r="I65" s="51"/>
+      <c r="J65" s="51"/>
+      <c r="K65" s="51"/>
+    </row>
+    <row r="66" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K66" s="43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="52" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" ht="14.1">
-      <c r="A59" s="55"/>
-      <c r="B59" s="7" t="s">
+      <c r="B67" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="J59" s="26"/>
-      <c r="K59" s="47"/>
-    </row>
-    <row r="60" spans="1:12" ht="27.95">
-      <c r="A60" s="55"/>
-      <c r="B60" s="7" t="s">
+      <c r="K67" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="K60" s="47"/>
-    </row>
-    <row r="61" spans="1:12" ht="14.1">
-      <c r="A61" s="55"/>
-      <c r="B61" s="7" t="s">
+      <c r="L67" s="21"/>
+    </row>
+    <row r="68" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="52"/>
+      <c r="B68" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K61" s="47"/>
-    </row>
-    <row r="62" spans="1:12" ht="42">
-      <c r="A62" s="55"/>
-      <c r="B62" s="7" t="s">
+      <c r="K68" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="K62" s="47"/>
-    </row>
-    <row r="63" spans="1:12" ht="14.1">
-      <c r="A63" s="6" t="s">
+    </row>
+    <row r="69" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="52"/>
+      <c r="B69" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="K69" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="K63" s="40" t="s">
+    </row>
+    <row r="70" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="52"/>
+      <c r="B70" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="L63" s="21"/>
-    </row>
-    <row r="65" spans="1:12" ht="12.95">
-      <c r="A65" s="53" t="s">
+      <c r="K70" s="45"/>
+    </row>
+    <row r="71" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="52"/>
+      <c r="B71" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B65" s="54"/>
-      <c r="C65" s="54"/>
-      <c r="D65" s="54"/>
-      <c r="E65" s="54"/>
-      <c r="F65" s="54"/>
-      <c r="G65" s="54"/>
-      <c r="H65" s="54"/>
-      <c r="I65" s="54"/>
-      <c r="J65" s="54"/>
-      <c r="K65" s="54"/>
-    </row>
-    <row r="66" spans="1:12" ht="14.1">
-      <c r="A66" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K66" s="45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="39" customHeight="1">
-      <c r="A67" s="55" t="s">
+      <c r="K71" s="45"/>
+    </row>
+    <row r="72" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="52"/>
+      <c r="B72" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="K72" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="K67" s="40" t="s">
+    </row>
+    <row r="73" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="52"/>
+      <c r="B73" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="L67" s="21"/>
-    </row>
-    <row r="68" spans="1:12" ht="18.95" customHeight="1">
-      <c r="A68" s="55"/>
-      <c r="B68" s="7" t="s">
+      <c r="K73" s="45"/>
+    </row>
+    <row r="74" spans="1:12" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="52"/>
+      <c r="B74" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K68" s="40" t="s">
+      <c r="K74" s="38" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="45" customHeight="1">
-      <c r="A69" s="55"/>
-      <c r="B69" s="7" t="s">
+    <row r="75" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A75" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="K69" s="40" t="s">
+      <c r="B75" s="7" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A70" s="55"/>
-      <c r="B70" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="K70" s="47"/>
-    </row>
-    <row r="71" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A71" s="55"/>
-      <c r="B71" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K71" s="47"/>
-    </row>
-    <row r="72" spans="1:12" ht="18.95" customHeight="1">
-      <c r="A72" s="55"/>
-      <c r="B72" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="K72" s="40" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="27" customHeight="1">
-      <c r="A73" s="55"/>
-      <c r="B73" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K73" s="47"/>
-    </row>
-    <row r="74" spans="1:12" ht="29.1" customHeight="1">
-      <c r="A74" s="55"/>
-      <c r="B74" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="K74" s="40" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="42">
-      <c r="A75" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="K75" s="40" t="str">
+      <c r="K75" s="38" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/administration/marketo-custom-activities/understanding-custom-activities.html","Understanding Custom Activities ")</f>
         <v xml:space="preserve">Understanding Custom Activities </v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="14.1">
-      <c r="A76" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="B76" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="K76" s="40" t="str">
+    <row r="76" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="B76" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="K76" s="38" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/administration/marketo-custom-objects/understanding-marketo-custom-objects.html","Understanding Marketo Custom Objects")</f>
         <v>Understanding Marketo Custom Objects</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="27.95">
-      <c r="A77" s="55"/>
-      <c r="B77" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="K77" s="47"/>
-    </row>
-    <row r="78" spans="1:12" ht="12.95">
+    <row r="77" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="52"/>
+      <c r="B77" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="K77" s="45"/>
+    </row>
+    <row r="78" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
-      <c r="B78" s="39"/>
-      <c r="K78" s="47"/>
-    </row>
-    <row r="79" spans="1:12" ht="12.95">
-      <c r="A79" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="B79" s="54"/>
-      <c r="C79" s="54"/>
-      <c r="D79" s="54"/>
-      <c r="E79" s="54"/>
-      <c r="F79" s="54"/>
-      <c r="G79" s="54"/>
-      <c r="H79" s="54"/>
-      <c r="I79" s="54"/>
-      <c r="J79" s="54"/>
-      <c r="K79" s="54"/>
-    </row>
-    <row r="80" spans="1:12" ht="14.1">
+      <c r="B78" s="37"/>
+      <c r="K78" s="45"/>
+    </row>
+    <row r="79" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A79" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="B79" s="51"/>
+      <c r="C79" s="51"/>
+      <c r="D79" s="51"/>
+      <c r="E79" s="51"/>
+      <c r="F79" s="51"/>
+      <c r="G79" s="51"/>
+      <c r="H79" s="51"/>
+      <c r="I79" s="51"/>
+      <c r="J79" s="51"/>
+      <c r="K79" s="51"/>
+    </row>
+    <row r="80" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G80" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="H80" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H80" s="1" t="s">
+      <c r="I80" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I80" s="1" t="s">
+      <c r="J80" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J80" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K80" s="45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" ht="14.1">
+      <c r="K80" s="43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="K81" s="49" t="str">
+        <v>121</v>
+      </c>
+      <c r="K81" s="47" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/administration/email-setup/change-the-default-from-email-and-from-label.html","Change the Default From Email and From Label")</f>
         <v>Change the Default From Email and From Label</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="14.1">
+    <row r="82" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="6"/>
       <c r="B82" s="7"/>
-      <c r="K82" s="49" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" ht="14.1">
-      <c r="K83" s="49" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" ht="12.95">
+      <c r="K82" s="47" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="K83" s="47" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="6"/>
       <c r="B84" s="3"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:13" ht="12.95">
-      <c r="A85" s="53" t="s">
+    <row r="85" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A85" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="B85" s="51"/>
+      <c r="C85" s="51"/>
+      <c r="D85" s="51"/>
+      <c r="E85" s="51"/>
+      <c r="F85" s="51"/>
+      <c r="G85" s="51"/>
+      <c r="H85" s="51"/>
+      <c r="I85" s="51"/>
+      <c r="J85" s="51"/>
+      <c r="K85" s="51"/>
+    </row>
+    <row r="86" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K86" s="43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K87" s="38" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A88" s="52"/>
+      <c r="B88" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K88" s="38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A89" s="52"/>
+      <c r="B89" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K89" s="38" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A90" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="B85" s="54"/>
-      <c r="C85" s="54"/>
-      <c r="D85" s="54"/>
-      <c r="E85" s="54"/>
-      <c r="F85" s="54"/>
-      <c r="G85" s="54"/>
-      <c r="H85" s="54"/>
-      <c r="I85" s="54"/>
-      <c r="J85" s="54"/>
-      <c r="K85" s="54"/>
-    </row>
-    <row r="86" spans="1:13" ht="14.1">
-      <c r="A86" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B86" s="1" t="s">
+      <c r="B90" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K86" s="45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" ht="15" customHeight="1">
-      <c r="A87" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="K87" s="40" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" ht="14.1">
-      <c r="A88" s="55"/>
-      <c r="B88" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="K88" s="40" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" ht="56.1">
-      <c r="A89" s="55"/>
-      <c r="B89" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="K89" s="40" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" ht="14.1">
-      <c r="A90" s="55" t="s">
-        <v>142</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="K90" s="40" t="str">
+      <c r="K90" s="38" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/administration/settings/edit-landing-page-settings.html","Edit Landing Page Settings")</f>
         <v>Edit Landing Page Settings</v>
       </c>
       <c r="L90" s="21"/>
       <c r="M90" s="21"/>
     </row>
-    <row r="91" spans="1:13" ht="14.1">
-      <c r="A91" s="55"/>
+    <row r="91" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A91" s="52"/>
       <c r="B91" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="K91" s="47"/>
+        <v>135</v>
+      </c>
+      <c r="K91" s="45"/>
       <c r="L91" s="21"/>
       <c r="M91" s="21"/>
     </row>
-    <row r="92" spans="1:13" ht="14.1">
-      <c r="A92" s="55"/>
+    <row r="92" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A92" s="52"/>
       <c r="B92" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K92" s="38" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A93" s="52"/>
+      <c r="B93" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K93" s="45"/>
+    </row>
+    <row r="94" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A94" s="52"/>
+      <c r="B94" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K94" s="38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A95" s="52"/>
+      <c r="B95" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K95" s="38" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A96" s="52"/>
+      <c r="B96" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K96" s="45"/>
+    </row>
+    <row r="97" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A97" s="52"/>
+      <c r="B97" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K97" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="K92" s="40" t="s">
+    </row>
+    <row r="98" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A98" s="52" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" ht="14.1">
-      <c r="A93" s="55"/>
-      <c r="B93" s="7" t="s">
+      <c r="B98" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K93" s="47"/>
-    </row>
-    <row r="94" spans="1:13" ht="14.1">
-      <c r="A94" s="55"/>
-      <c r="B94" s="7" t="s">
+      <c r="K98" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="K94" s="40" t="s">
+    </row>
+    <row r="99" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A99" s="52"/>
+      <c r="B99" s="13" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" ht="27.95">
-      <c r="A95" s="55"/>
-      <c r="B95" s="7" t="s">
+      <c r="K99" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="K95" s="40" t="s">
+    </row>
+    <row r="100" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="52"/>
+      <c r="B100" s="13" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" ht="27.95">
-      <c r="A96" s="55"/>
-      <c r="B96" s="7" t="s">
+      <c r="K100" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="K96" s="47"/>
-    </row>
-    <row r="97" spans="1:12" ht="27.95">
-      <c r="A97" s="55"/>
-      <c r="B97" s="7" t="s">
+    </row>
+    <row r="101" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A101" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="K97" s="40" t="s">
+      <c r="B101" s="7" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" ht="56.1">
-      <c r="A98" s="55" t="s">
+      <c r="K101" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="B98" s="7" t="s">
+    </row>
+    <row r="102" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A102" s="52"/>
+      <c r="B102" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K98" s="40" t="s">
+      <c r="K102" s="45"/>
+      <c r="L102" s="23"/>
+    </row>
+    <row r="103" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A103" s="52"/>
+      <c r="B103" s="7" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" ht="14.1">
-      <c r="A99" s="55"/>
-      <c r="B99" s="13" t="s">
+      <c r="K103" s="45"/>
+    </row>
+    <row r="104" spans="1:12" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="K99" s="40" t="s">
+      <c r="B104" s="13" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" ht="51" customHeight="1">
-      <c r="A100" s="55"/>
-      <c r="B100" s="13" t="s">
+      <c r="K104" s="79" t="s">
         <v>160</v>
       </c>
-      <c r="K100" s="40" t="s">
+    </row>
+    <row r="105" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A105" s="55"/>
+      <c r="B105" s="7" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" ht="14.1">
-      <c r="A101" s="55" t="s">
+      <c r="K105" s="80" t="s">
         <v>162</v>
       </c>
-      <c r="B101" s="7" t="s">
+    </row>
+    <row r="106" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A106" s="55"/>
+      <c r="B106" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K101" s="40" t="s">
+      <c r="K106" s="80" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="14.1">
-      <c r="A102" s="55"/>
-      <c r="B102" s="7" t="s">
+    <row r="107" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A107" s="55"/>
+      <c r="B107" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K102" s="47"/>
-      <c r="L102" s="23"/>
-    </row>
-    <row r="103" spans="1:12" ht="42">
-      <c r="A103" s="55"/>
-      <c r="B103" s="7" t="s">
+      <c r="K107" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="K103" s="47"/>
-    </row>
-    <row r="104" spans="1:12" ht="41.1" customHeight="1">
-      <c r="A104" s="57" t="s">
+    </row>
+    <row r="108" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A108" s="55"/>
+      <c r="B108" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B104" s="13" t="s">
+      <c r="K108" s="45"/>
+    </row>
+    <row r="109" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A109" s="55"/>
+      <c r="B109" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="K104" s="50" t="s">
+      <c r="K109" s="45"/>
+    </row>
+    <row r="110" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A110" s="55"/>
+      <c r="B110" s="7" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" ht="69.95">
-      <c r="A105" s="57"/>
-      <c r="B105" s="7" t="s">
+      <c r="K110" s="45"/>
+    </row>
+    <row r="111" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A111" s="55"/>
+      <c r="B111" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K105" s="51" t="s">
+      <c r="K111" s="80" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="27.95">
-      <c r="A106" s="57"/>
-      <c r="B106" s="7" t="s">
+    <row r="112" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A112" s="55"/>
+      <c r="B112" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K106" s="51" t="s">
+      <c r="K112" s="80" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="42">
-      <c r="A107" s="57"/>
-      <c r="B107" s="7" t="s">
+    <row r="113" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A113" s="55"/>
+      <c r="B113" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K107" s="51" t="s">
+      <c r="K113" s="80" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="42">
-      <c r="A108" s="57"/>
-      <c r="B108" s="7" t="s">
+    <row r="114" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A114" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="K108" s="47"/>
-    </row>
-    <row r="109" spans="1:12" ht="27.95">
-      <c r="A109" s="57"/>
-      <c r="B109" s="7" t="s">
+      <c r="B114" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="K109" s="47"/>
-    </row>
-    <row r="110" spans="1:12" ht="27.95">
-      <c r="A110" s="57"/>
-      <c r="B110" s="7" t="s">
+      <c r="K114" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="K110" s="47"/>
-    </row>
-    <row r="111" spans="1:12" ht="14.1">
-      <c r="A111" s="57"/>
-      <c r="B111" s="7" t="s">
+    </row>
+    <row r="115" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A115" s="55"/>
+      <c r="B115" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="K111" s="51" t="s">
+      <c r="K115" s="38" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="56.1">
-      <c r="A112" s="57"/>
-      <c r="B112" s="7" t="s">
+    <row r="116" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="55"/>
+      <c r="B116" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="K112" s="51" t="s">
+      <c r="K116" s="38" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" ht="69.95">
-      <c r="A113" s="57"/>
-      <c r="B113" s="7" t="s">
+      <c r="L116" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="K113" s="51" t="s">
+    </row>
+    <row r="117" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A117" s="55"/>
+      <c r="B117" s="13" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" ht="27.95">
-      <c r="A114" s="57" t="s">
+      <c r="K117" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="B114" s="13" t="s">
+    </row>
+    <row r="118" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A118" s="55"/>
+      <c r="B118" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="K114" s="40" t="s">
+      <c r="K118" s="38" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="14.1">
-      <c r="A115" s="57"/>
-      <c r="B115" s="13" t="s">
+    <row r="119" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A119" s="52" t="s">
         <v>188</v>
       </c>
-      <c r="K115" s="40" t="s">
+      <c r="B119" s="7" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" ht="27.95" customHeight="1">
-      <c r="A116" s="57"/>
-      <c r="B116" s="25" t="s">
+      <c r="K119" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="K116" s="40" t="s">
+      <c r="L119" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="L116" s="23" t="s">
+    </row>
+    <row r="120" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A120" s="52"/>
+      <c r="B120" s="7" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" ht="27.95">
-      <c r="A117" s="57"/>
-      <c r="B117" s="13" t="s">
+      <c r="K120" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="K117" s="40" t="s">
+    </row>
+    <row r="121" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="52"/>
+      <c r="B121" s="7" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" ht="14.1">
-      <c r="A118" s="57"/>
-      <c r="B118" s="13" t="s">
+      <c r="K121" s="38"/>
+    </row>
+    <row r="122" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="K118" s="40" t="s">
+      <c r="B122" s="7" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" ht="27.95">
-      <c r="A119" s="55" t="s">
+      <c r="K122" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="B119" s="7" t="s">
+      <c r="L122" s="21"/>
+    </row>
+    <row r="123" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="52"/>
+      <c r="B123" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K119" s="40" t="s">
+      <c r="K123" s="38"/>
+      <c r="L123" s="21"/>
+    </row>
+    <row r="124" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="52" t="s">
         <v>199</v>
       </c>
-      <c r="L119" s="21" t="s">
+      <c r="B124" s="54" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" ht="27.95">
-      <c r="A120" s="55"/>
-      <c r="B120" s="7" t="s">
+      <c r="L124" s="21"/>
+    </row>
+    <row r="125" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="52"/>
+      <c r="B125" s="53"/>
+      <c r="C125" s="53"/>
+      <c r="D125" s="53"/>
+      <c r="K125" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="K120" s="40" t="s">
+      <c r="L125" s="21"/>
+    </row>
+    <row r="126" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="52"/>
+      <c r="B126" s="13" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" ht="27.95" customHeight="1">
-      <c r="A121" s="55"/>
-      <c r="B121" s="7" t="s">
+      <c r="C126" s="53"/>
+      <c r="D126" s="53"/>
+      <c r="K126" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="K121" s="40"/>
-    </row>
-    <row r="122" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A122" s="55" t="s">
+    </row>
+    <row r="127" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A127" s="39"/>
+      <c r="B127" s="40"/>
+      <c r="C127" s="40"/>
+      <c r="D127" s="40"/>
+      <c r="E127" s="40"/>
+      <c r="F127" s="40"/>
+      <c r="G127" s="40"/>
+      <c r="H127" s="40"/>
+      <c r="I127" s="40"/>
+      <c r="J127" s="40"/>
+      <c r="K127" s="48"/>
+    </row>
+    <row r="128" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A128" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="B122" s="7" t="s">
+      <c r="B128" s="51"/>
+      <c r="C128" s="51"/>
+      <c r="D128" s="51"/>
+      <c r="E128" s="51"/>
+      <c r="F128" s="51"/>
+      <c r="G128" s="51"/>
+      <c r="H128" s="51"/>
+      <c r="I128" s="51"/>
+      <c r="J128" s="51"/>
+      <c r="K128" s="51"/>
+    </row>
+    <row r="129" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A129" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K129" s="43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A130" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B130" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="K122" s="40" t="s">
-        <v>206</v>
-      </c>
-      <c r="L122" s="21"/>
-    </row>
-    <row r="123" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A123" s="55"/>
-      <c r="B123" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="K123" s="40"/>
-      <c r="L123" s="21"/>
-    </row>
-    <row r="124" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A124" s="55" t="s">
-        <v>208</v>
-      </c>
-      <c r="B124" s="56" t="s">
-        <v>209</v>
-      </c>
-      <c r="L124" s="21"/>
-    </row>
-    <row r="125" spans="1:12" ht="27.75" customHeight="1">
-      <c r="A125" s="55"/>
-      <c r="B125" s="59"/>
-      <c r="C125" s="59"/>
-      <c r="D125" s="59"/>
-      <c r="K125" s="40" t="s">
-        <v>210</v>
-      </c>
-      <c r="L125" s="21"/>
-    </row>
-    <row r="126" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A126" s="55"/>
-      <c r="B126" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="C126" s="59"/>
-      <c r="D126" s="59"/>
-      <c r="K126" s="40" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" ht="12.95">
-      <c r="A127" s="41"/>
-      <c r="B127" s="42"/>
-      <c r="C127" s="42"/>
-      <c r="D127" s="42"/>
-      <c r="E127" s="42"/>
-      <c r="F127" s="42"/>
-      <c r="G127" s="42"/>
-      <c r="H127" s="42"/>
-      <c r="I127" s="42"/>
-      <c r="J127" s="42"/>
-      <c r="K127" s="52"/>
-    </row>
-    <row r="128" spans="1:12" ht="12.95">
-      <c r="A128" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="B128" s="54"/>
-      <c r="C128" s="54"/>
-      <c r="D128" s="54"/>
-      <c r="E128" s="54"/>
-      <c r="F128" s="54"/>
-      <c r="G128" s="54"/>
-      <c r="H128" s="54"/>
-      <c r="I128" s="54"/>
-      <c r="J128" s="54"/>
-      <c r="K128" s="54"/>
-    </row>
-    <row r="129" spans="1:11" ht="14.1">
-      <c r="A129" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H129" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I129" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J129" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K129" s="45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" ht="27.95">
-      <c r="A130" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="K130" s="40" t="str">
+      <c r="K130" s="38" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/administration/settings/enable-or-disable-treasure-chest-features.html","Enable or Disable Treasure Chest Features")</f>
         <v>Enable or Disable Treasure Chest Features</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="42">
+    <row r="131" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K131" s="40" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" ht="12.95"/>
-    <row r="133" spans="1:11" ht="12.95">
-      <c r="A133" s="53" t="s">
-        <v>217</v>
-      </c>
-      <c r="B133" s="54"/>
-      <c r="C133" s="54"/>
-      <c r="D133" s="54"/>
-      <c r="E133" s="54"/>
-      <c r="F133" s="54"/>
-      <c r="G133" s="54"/>
-      <c r="H133" s="54"/>
-      <c r="I133" s="54"/>
-      <c r="J133" s="54"/>
-      <c r="K133" s="54"/>
-    </row>
-    <row r="134" spans="1:11" ht="15.75" customHeight="1">
+        <v>207</v>
+      </c>
+      <c r="K131" s="38" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="133" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A133" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="B133" s="51"/>
+      <c r="C133" s="51"/>
+      <c r="D133" s="51"/>
+      <c r="E133" s="51"/>
+      <c r="F133" s="51"/>
+      <c r="G133" s="51"/>
+      <c r="H133" s="51"/>
+      <c r="I133" s="51"/>
+      <c r="J133" s="51"/>
+      <c r="K133" s="51"/>
+    </row>
+    <row r="134" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F134" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G134" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G134" s="1" t="s">
+      <c r="H134" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H134" s="1" t="s">
+      <c r="I134" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I134" s="1" t="s">
+      <c r="J134" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J134" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K134" s="45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" ht="14.1">
+      <c r="K134" s="43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="K135" s="40" t="str">
+        <v>210</v>
+      </c>
+      <c r="K135" s="38" t="str">
         <f>HYPERLINK("https://nation.marketo.com/t5/knowledgebase/how-to-subscribe-to-status-page-notifications/ta-p/296749","How to Subscribe to Status Page Notifications")</f>
         <v>How to Subscribe to Status Page Notifications</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="42">
+    <row r="136" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="K136" s="40" t="str">
+        <v>212</v>
+      </c>
+      <c r="K136" s="38" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/core-marketo-concepts/smart-campaigns/flow-actions/send-alert.html","Send Alert")</f>
         <v>Send Alert</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="14.1">
+    <row r="137" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="K137" s="40" t="str">
+        <v>214</v>
+      </c>
+      <c r="K137" s="38" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/core-marketo-concepts/miscellaneous/understanding-notifications.html","Understanding Notifications")</f>
         <v>Understanding Notifications</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="12.95"/>
-    <row r="139" spans="1:11" ht="12.95"/>
+    <row r="138" spans="1:11" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="139" spans="1:11" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="A49:K49"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A30:K30"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="A44:K44"/>
+    <mergeCell ref="A79:K79"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="A65:K65"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A62"/>
+    <mergeCell ref="A67:A74"/>
+    <mergeCell ref="A76:A77"/>
     <mergeCell ref="A128:K128"/>
     <mergeCell ref="A133:K133"/>
     <mergeCell ref="C125:C126"/>
@@ -3760,17 +5281,15 @@
     <mergeCell ref="A122:A123"/>
     <mergeCell ref="A124:A126"/>
     <mergeCell ref="A104:A113"/>
-    <mergeCell ref="A79:K79"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="A65:K65"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A57:A62"/>
-    <mergeCell ref="A67:A74"/>
-    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="A49:K49"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A30:K30"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="A44:K44"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G103 G105:G1048576" xr:uid="{1C882D54-F374-7245-A674-094BF749AE2C}">
@@ -3849,7 +5368,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3860,7 +5379,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" style="14" customWidth="1"/>
     <col min="2" max="2" width="40.42578125" style="2" customWidth="1"/>
@@ -3875,220 +5394,220 @@
     <col min="12" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="12.95">
-      <c r="A1" s="53" t="s">
-        <v>224</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-    </row>
-    <row r="2" spans="1:11" ht="12.95">
+    <row r="1" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="50" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+    </row>
+    <row r="2" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="K2" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="56.1">
-      <c r="A3" s="55" t="s">
-        <v>225</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="52" t="s">
+        <v>216</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="K3" s="8" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/core-marketo-concepts/smart-lists-and-static-lists/managing-people-in-smart-lists/database-dashboard.html","Database Dashboard")</f>
         <v>Database Dashboard</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="56.1">
-      <c r="A4" s="55"/>
+    <row r="4" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="52"/>
       <c r="B4" s="7" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:11" ht="27.95">
-      <c r="A5" s="55" t="s">
-        <v>228</v>
+    <row r="5" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="52" t="s">
+        <v>219</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="27.95">
-      <c r="A6" s="55"/>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="52"/>
       <c r="B6" s="7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="27.95">
-      <c r="A7" s="55"/>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="52"/>
       <c r="B7" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="27.95">
-      <c r="A8" s="55" t="s">
-        <v>233</v>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="52" t="s">
+        <v>224</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="K8" s="8" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/email-marketing/deliverability/durable-unsubscribe.html","Durable Unsubscribe")</f>
         <v>Durable Unsubscribe</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="84">
-      <c r="A9" s="55"/>
+    <row r="9" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="52"/>
       <c r="B9" s="7" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="K9" s="9"/>
     </row>
-    <row r="10" spans="1:11" ht="12.95">
+    <row r="10" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="K10" s="8" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/core-marketo-concepts/smart-lists-and-static-lists/managing-people-in-smart-lists/add-person-to-blocklist.html","Add Person to Blocklist")</f>
         <v>Add Person to Blocklist</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="42">
+    <row r="11" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="K11" s="8" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/email-marketing/deliverability/hard-and-soft-bounces-in-email.html","Hard and Soft Bounces in Emails")</f>
         <v>Hard and Soft Bounces in Emails</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="27.95">
+    <row r="12" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="K12" s="8" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/core-marketo-concepts/smart-lists-and-static-lists/managing-people-in-smart-lists/find-and-merge-duplicate-people.html","Find and Merge Duplicate People")</f>
         <v>Find and Merge Duplicate People</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="27.95">
+    <row r="13" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="12.95">
-      <c r="A16" s="53" t="s">
-        <v>245</v>
-      </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-    </row>
-    <row r="17" spans="1:11" ht="12.95">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="50" t="s">
+        <v>236</v>
+      </c>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+    </row>
+    <row r="17" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="K17" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="69.95">
-      <c r="A18" s="55" t="s">
-        <v>245</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="52" t="s">
+        <v>236</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -4099,13 +5618,13 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="8" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="69.95">
-      <c r="A19" s="55"/>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="52"/>
       <c r="B19" s="7" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -4116,10 +5635,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="8" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="12.95">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4132,62 +5651,62 @@
       <c r="J20" s="3"/>
       <c r="K20" s="11"/>
     </row>
-    <row r="21" spans="1:11" ht="12.95">
-      <c r="A21" s="53" t="s">
-        <v>250</v>
-      </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-    </row>
-    <row r="22" spans="1:11" ht="12.95">
+    <row r="21" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+    </row>
+    <row r="22" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="K22" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="56.1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -4198,88 +5717,88 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="12.95">
-      <c r="A25" s="53" t="s">
-        <v>253</v>
-      </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-    </row>
-    <row r="26" spans="1:11" ht="12.95">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+    </row>
+    <row r="26" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="J26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="K26" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="12.95" customHeight="1">
-      <c r="A27" s="55" t="s">
-        <v>253</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="52" t="s">
+        <v>244</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="K27" s="8" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/personalization/segmentation-and-snippets/segmentation/create-a-segmentation.html","Create a Segmentation")</f>
         <v>Create a Segmentation</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="12.95" customHeight="1">
-      <c r="A28" s="55"/>
+    <row r="28" spans="1:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="52"/>
       <c r="B28" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="K28" s="8" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/personalization/segmentation-and-snippets/segmentation/segmentation-order-priority.html","Segmentation Order Priority")</f>
         <v>Segmentation Order Priority</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="26.1" customHeight="1">
-      <c r="A29" s="55"/>
+    <row r="29" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="52"/>
       <c r="B29" s="13" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="33.950000000000003" customHeight="1"/>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A1:K1"/>
@@ -4314,669 +5833,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:M53"/>
-  <sheetViews>
-    <sheetView zoomScale="114" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="21.85546875" style="36" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="2"/>
-    <col min="4" max="5" width="29.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="24.42578125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="38" style="14" customWidth="1"/>
-    <col min="12" max="16384" width="14.42578125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="12.95">
-      <c r="A1" s="53" t="s">
-        <v>257</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-    </row>
-    <row r="2" spans="1:13" ht="14.1">
-      <c r="A2" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="27.95">
-      <c r="A3" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="K3" s="30" t="s">
-        <v>260</v>
-      </c>
-      <c r="L3" s="21"/>
-    </row>
-    <row r="4" spans="1:13" ht="27.95">
-      <c r="A4" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="K4" s="30" t="str">
-        <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/core-marketo-concepts/programs/working-with-programs/best-practice-how-to-organize-your-programs.html","Understanding Folders")</f>
-        <v>Understanding Folders</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="58" t="s">
-        <v>263</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="M5" s="32"/>
-    </row>
-    <row r="6" spans="1:13" ht="18" customHeight="1">
-      <c r="A6" s="58"/>
-      <c r="B6" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="K6" s="30" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A7" s="58"/>
-      <c r="B7" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="K7" s="30" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A8" s="58"/>
-      <c r="B8" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="K8" s="30" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="72.95" customHeight="1">
-      <c r="A9" s="58"/>
-      <c r="B9" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="K9" s="30" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="27.95">
-      <c r="A10" s="58" t="s">
-        <v>273</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="K10" s="30" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="27.95">
-      <c r="A11" s="58"/>
-      <c r="B11" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="K11" s="33"/>
-    </row>
-    <row r="12" spans="1:13" ht="27.95">
-      <c r="A12" s="58" t="s">
-        <v>222</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="K12" s="30" t="str">
-        <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/core-marketo-concepts/miscellaneous/notification-types.html","Notification Types")</f>
-        <v>Notification Types</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="27.95">
-      <c r="A13" s="58"/>
-      <c r="B13" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="K13" s="30" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="69.95">
-      <c r="A14" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="K14" s="30" t="str">
-        <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/reporting/basic-reporting/report-subscriptions/subscribe-to-a-smart-list.html","Subscribe to a Smart List")</f>
-        <v>Subscribe to a Smart List</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="12.95">
-      <c r="A16" s="53" t="s">
-        <v>281</v>
-      </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-    </row>
-    <row r="17" spans="1:12" ht="14.1">
-      <c r="A17" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="56.1" customHeight="1">
-      <c r="A18" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="K18" s="30" t="s">
-        <v>284</v>
-      </c>
-      <c r="L18" s="21"/>
-    </row>
-    <row r="19" spans="1:12" ht="32.1" customHeight="1">
-      <c r="A19" s="58"/>
-      <c r="B19" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="K19" s="30"/>
-      <c r="L19" s="21"/>
-    </row>
-    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="58" t="s">
-        <v>286</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="K20" s="30" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="45" customHeight="1">
-      <c r="A21" s="58"/>
-      <c r="B21" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="K21" s="30" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="30.75" customHeight="1">
-      <c r="A22" s="58"/>
-      <c r="B22" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="K22" s="30" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="29.1" customHeight="1">
-      <c r="A23" s="58"/>
-      <c r="B23" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="K23" s="30" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="58" t="s">
-        <v>295</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="K24" s="30" t="str">
-        <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/core-marketo-concepts/smart-campaigns/creating-a-smart-campaign/understanding-batch-and-trigger-smart-campaigns.html?lang=en#batch-campaign","Batch Campaign")</f>
-        <v>Batch Campaign</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="14.1">
-      <c r="A25" s="58"/>
-      <c r="B25" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="K25" s="34"/>
-    </row>
-    <row r="26" spans="1:12" ht="14.1">
-      <c r="A26" s="58" t="s">
-        <v>298</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="14.1">
-      <c r="A27" s="58"/>
-      <c r="B27" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="K27" s="34"/>
-    </row>
-    <row r="28" spans="1:12" ht="27.95">
-      <c r="A28" s="58"/>
-      <c r="B28" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="K28" s="30" t="str">
-        <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/core-marketo-concepts/smart-campaigns/creating-a-smart-campaign/understanding-batch-and-trigger-smart-campaigns.html?lang=en#trigger-campaign","Trigger Campaign")</f>
-        <v>Trigger Campaign</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="27.95">
-      <c r="A29" s="58" t="s">
-        <v>301</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="K29" s="30" t="s">
-        <v>303</v>
-      </c>
-      <c r="L29" s="21"/>
-    </row>
-    <row r="30" spans="1:12" ht="123.95" customHeight="1">
-      <c r="A30" s="58"/>
-      <c r="B30" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="K30" s="35"/>
-      <c r="L30" s="21"/>
-    </row>
-    <row r="31" spans="1:12" ht="32.1" customHeight="1">
-      <c r="A31" s="58" t="s">
-        <v>305</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="K31" s="30" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="42" customHeight="1">
-      <c r="A32" s="58"/>
-      <c r="B32" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="K32" s="30" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="26.1" customHeight="1">
-      <c r="A33" s="58"/>
-      <c r="B33" s="13" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="21.95" customHeight="1">
-      <c r="A34" s="58"/>
-      <c r="B34" s="13" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="18" customHeight="1">
-      <c r="A35" s="58"/>
-      <c r="B35" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="K35" s="30" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="33" customHeight="1">
-      <c r="A36" s="58"/>
-      <c r="B36" s="13" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="27.95" customHeight="1">
-      <c r="A37" s="58"/>
-      <c r="B37" s="13" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="12.95">
-      <c r="A39" s="53" t="s">
-        <v>316</v>
-      </c>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="54"/>
-    </row>
-    <row r="40" spans="1:11" ht="14.1">
-      <c r="A40" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="27.95">
-      <c r="A41" s="58" t="s">
-        <v>317</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="K41" s="30" t="str">
-        <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/getting-started-with-marketo/quick-wins/simple-scoring.html","Simple Scoring")</f>
-        <v>Simple Scoring</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="27.95">
-      <c r="A42" s="58"/>
-      <c r="B42" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="K42" s="34"/>
-    </row>
-    <row r="43" spans="1:11" ht="56.1">
-      <c r="A43" s="19" t="s">
-        <v>320</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="K43" s="34"/>
-    </row>
-    <row r="44" spans="1:11" ht="27.95">
-      <c r="A44" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="K44" s="34"/>
-    </row>
-    <row r="45" spans="1:11" ht="27.95">
-      <c r="A45" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="K45" s="30" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="84">
-      <c r="A46" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="K46" s="30" t="str">
-        <f>HYPERLINK("https://business.adobe.com/resources/ebooks/the-gdpr-and-the-marketer.html","The GDPR and The Marketer: A Practical Guide for the Marketo Customer")</f>
-        <v>The GDPR and The Marketer: A Practical Guide for the Marketo Customer</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="27.95">
-      <c r="A47" s="58" t="s">
-        <v>329</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="K47" s="33"/>
-    </row>
-    <row r="48" spans="1:11" ht="14.1">
-      <c r="A48" s="58"/>
-      <c r="B48" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="K48" s="33"/>
-    </row>
-    <row r="49" spans="1:12" ht="27.95">
-      <c r="A49" s="58" t="s">
-        <v>332</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="K49" s="30" t="s">
-        <v>334</v>
-      </c>
-      <c r="L49" s="21"/>
-    </row>
-    <row r="50" spans="1:12" ht="42">
-      <c r="A50" s="58"/>
-      <c r="B50" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="K50" s="30" t="s">
-        <v>336</v>
-      </c>
-      <c r="L50" s="21"/>
-    </row>
-    <row r="51" spans="1:12" ht="27.95">
-      <c r="A51" s="58"/>
-      <c r="B51" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="K51" s="35"/>
-      <c r="L51" s="21"/>
-    </row>
-    <row r="52" spans="1:12" ht="27.95">
-      <c r="A52" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="K52" s="30" t="str">
-        <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo-learn/tutorials/lead-and-data-management/subscription-center-watch.html","How to set up and manage a subscription center")</f>
-        <v>How to set up and manage a subscription center</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="27.95">
-      <c r="A53" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="K53" s="30" t="s">
-        <v>342</v>
-      </c>
-      <c r="L53" s="21"/>
-    </row>
-  </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A39:K39"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-  </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{2BF04E9C-9EAB-E54D-854E-D25E99B17194}">
-      <formula1>"Low (0-4 hours), Medium (4.5-15 hours), High (15+ hours)"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{969F4BC1-5714-604D-80E9-A398F29EBDD1}">
-      <formula1>"Complete, In Progress, Not Started"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{7CB1A39C-AB65-F043-AB0A-6C5C1E3C1E8E}">
-      <formula1>"High, Medium, Low"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" location="naming-schemes" xr:uid="{42A9D17C-F980-9E47-8A3E-F9A07F1C4C3D}"/>
-    <hyperlink ref="K5" r:id="rId2" xr:uid="{CCCDCCB9-C090-214F-94A1-232717DB0C2C}"/>
-    <hyperlink ref="K18" r:id="rId3" xr:uid="{166A0D2E-B874-614E-AE33-E180B5FBD561}"/>
-    <hyperlink ref="K29" r:id="rId4" xr:uid="{686CEB82-F690-D84E-86C4-EAB2E53791AE}"/>
-    <hyperlink ref="K53" r:id="rId5" xr:uid="{97540944-A353-A041-A6A1-4FA06321B50C}"/>
-    <hyperlink ref="K49" r:id="rId6" xr:uid="{B1766D2C-C815-4F40-9652-41625B2D686C}"/>
-    <hyperlink ref="K6" r:id="rId7" xr:uid="{44AB5349-636D-C048-A5E0-90765A832462}"/>
-    <hyperlink ref="K7" r:id="rId8" xr:uid="{932A0865-FF4A-0642-912B-65C29EF670EF}"/>
-    <hyperlink ref="K9" r:id="rId9" xr:uid="{66472174-EB2A-E648-8119-C9A603E5A6D7}"/>
-    <hyperlink ref="K10" r:id="rId10" location="archive-a-folder" xr:uid="{D1C49980-0818-9B4F-B018-237EF074E1DC}"/>
-    <hyperlink ref="K13" r:id="rId11" location="subscribe-to-notifications" xr:uid="{2B6EC325-01F8-9341-B567-455AA5F0B5CE}"/>
-    <hyperlink ref="K20" r:id="rId12" xr:uid="{218FFB9E-44B9-0148-ABA1-6538E2FFFDD1}"/>
-    <hyperlink ref="K21" r:id="rId13" xr:uid="{46185568-63DC-0B47-9D2E-1E29EBCE625C}"/>
-    <hyperlink ref="K22" r:id="rId14" xr:uid="{0592E870-A61B-3141-B426-B7DE353F93C7}"/>
-    <hyperlink ref="K23" r:id="rId15" xr:uid="{CA334251-33FD-2E45-9340-E02409C6874A}"/>
-    <hyperlink ref="K31" r:id="rId16" xr:uid="{98272C3F-3853-054A-A67B-74583E0CA39F}"/>
-    <hyperlink ref="K32" r:id="rId17" xr:uid="{64B1E2E4-62BA-A948-962A-45FF16BEB479}"/>
-    <hyperlink ref="K35" r:id="rId18" xr:uid="{24EBABC6-ED98-5145-8F1D-77B09941A049}"/>
-    <hyperlink ref="K45" r:id="rId19" xr:uid="{D6F04A87-3D93-1045-9821-4A8DE8A855A9}"/>
-    <hyperlink ref="K50" r:id="rId20" xr:uid="{59311813-81C6-7943-8406-8FB8A3521146}"/>
-    <hyperlink ref="K8" r:id="rId21" location="acquisition-program" xr:uid="{61B557C7-5BD8-504C-BBDB-D84CF884AEC8}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
@@ -4988,7 +5844,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.140625" style="14" customWidth="1"/>
     <col min="2" max="2" width="37" style="25" customWidth="1"/>
@@ -5003,9 +5859,9 @@
     <col min="12" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="17"/>
@@ -5018,98 +5874,98 @@
       <c r="J1" s="17"/>
       <c r="K1" s="17"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="33" customHeight="1">
-      <c r="A3" s="58" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="56" t="s">
+        <v>334</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="L3" s="21"/>
+    </row>
+    <row r="4" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="56"/>
+      <c r="B4" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="L4" s="21"/>
+    </row>
+    <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="L5" s="21"/>
+    </row>
+    <row r="6" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="K6" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="L6" s="21"/>
+    </row>
+    <row r="7" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B7" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="L3" s="21"/>
-    </row>
-    <row r="4" spans="1:12" ht="33" customHeight="1">
-      <c r="A4" s="58"/>
-      <c r="B4" s="20" t="s">
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
         <v>346</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>347</v>
-      </c>
-      <c r="L4" s="21"/>
-    </row>
-    <row r="5" spans="1:12" ht="30" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="K5" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="L5" s="21"/>
-    </row>
-    <row r="6" spans="1:12" ht="33" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="K6" s="21" t="s">
-        <v>353</v>
-      </c>
-      <c r="L6" s="21"/>
-    </row>
-    <row r="7" spans="1:12" ht="27.95" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A9" s="15" t="s">
-        <v>355</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="17"/>
@@ -5122,80 +5978,80 @@
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F10" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="H10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="I10" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="J10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="K10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="33" customHeight="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="K11" s="23" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="32.1" customHeight="1">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="K12" s="23" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="125.1" customHeight="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="125.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="K13" s="23" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="L13" s="23" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="17"/>
@@ -5208,113 +6064,113 @@
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F16" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="H16" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="I16" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="J16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="K16" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1">
-      <c r="A17" s="55" t="s">
-        <v>305</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="52" t="s">
+        <v>296</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="L17" s="21"/>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1">
-      <c r="A18" s="55"/>
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="52"/>
       <c r="B18" s="24" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="K18" s="21"/>
       <c r="L18" s="21"/>
     </row>
-    <row r="19" spans="1:12" ht="27" customHeight="1">
-      <c r="A19" s="55"/>
+    <row r="19" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="52"/>
       <c r="B19" s="24" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="K19" s="21"/>
       <c r="L19" s="21"/>
     </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A20" s="55"/>
+    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="52"/>
       <c r="B20" s="24" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="K20" s="21"/>
       <c r="L20" s="21"/>
     </row>
-    <row r="21" spans="1:12" ht="83.1" customHeight="1">
-      <c r="A21" s="55"/>
+    <row r="21" spans="1:12" ht="83.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="52"/>
       <c r="B21" s="24" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="K21" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="L21" s="21"/>
+    </row>
+    <row r="22" spans="1:12" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="L22" s="21"/>
+    </row>
+    <row r="23" spans="1:12" ht="162.94999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B23" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="L21" s="21"/>
-    </row>
-    <row r="22" spans="1:12" ht="77.099999999999994" customHeight="1">
-      <c r="A22" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>369</v>
-      </c>
-      <c r="K22" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="L22" s="21"/>
-    </row>
-    <row r="23" spans="1:12" ht="162.94999999999999" customHeight="1">
-      <c r="A23" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>371</v>
-      </c>
       <c r="K23" s="23" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="17"/>
@@ -5327,87 +6183,87 @@
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1">
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F27" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="H27" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H27" s="12" t="s">
+      <c r="I27" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I27" s="12" t="s">
+      <c r="J27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="K27" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="32.1" customHeight="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="K28" s="23" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/email-marketing/general/creating-an-email/create-an-email.html","Create an Email")</f>
         <v>Create an Email</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="29.1" customHeight="1">
+    <row r="29" spans="1:12" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="K29" s="23" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/email-marketing/general/email-editor-2/create-an-email-template.html","Create an Email Template")</f>
         <v>Create an Email Template</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="29.1" customHeight="1">
+    <row r="30" spans="1:12" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="K30" s="23" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="92.1" customHeight="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="92.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="B34" s="16"/>
       <c r="C34" s="17"/>
@@ -5420,64 +6276,64 @@
       <c r="J34" s="17"/>
       <c r="K34" s="17"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F35" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G35" s="12" t="s">
+      <c r="H35" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H35" s="12" t="s">
+      <c r="I35" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I35" s="12" t="s">
+      <c r="J35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J35" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="K35" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="66.95" customHeight="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="66.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="K36" s="21" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="L36" s="21"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K37" s="23" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K39" s="26"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="B40" s="16"/>
       <c r="C40" s="17"/>
@@ -5490,73 +6346,73 @@
       <c r="J40" s="17"/>
       <c r="K40" s="17"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F41" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G41" s="12" t="s">
+      <c r="H41" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H41" s="12" t="s">
+      <c r="I41" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I41" s="12" t="s">
+      <c r="J41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J41" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="K41" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="77.099999999999994" customHeight="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="K42" s="23" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="L42" s="23" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="M42" s="23" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="N42" s="23" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="72" customHeight="1">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="K43" s="23" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="20"/>
       <c r="K44" s="26"/>
@@ -5603,226 +6459,1993 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="114" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="14"/>
-    <col min="2" max="2" width="39" style="13" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" style="34" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" style="13" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" style="2"/>
-    <col min="4" max="5" width="31.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="26.42578125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="29.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="24.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="38" style="14" customWidth="1"/>
     <col min="12" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A1" s="15" t="s">
-        <v>395</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>24</v>
+    <row r="1" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+    </row>
+    <row r="2" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="21" customHeight="1">
-      <c r="A3" s="55" t="s">
-        <v>396</v>
+      <c r="K2" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>249</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="53.1" customHeight="1">
-      <c r="A4" s="55"/>
+        <v>250</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="L3" s="21"/>
+    </row>
+    <row r="4" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>252</v>
+      </c>
       <c r="B4" s="7" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="30" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A7" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="F8" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="K4" s="28" t="str">
+        <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/core-marketo-concepts/programs/working-with-programs/best-practice-how-to-organize-your-programs.html","Understanding Folders")</f>
+        <v>Understanding Folders</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="56" t="s">
+        <v>254</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="M5" s="30"/>
+    </row>
+    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="56"/>
+      <c r="B6" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="56"/>
+      <c r="B7" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="56"/>
+      <c r="B8" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="K8" s="28" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="72.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="56"/>
+      <c r="B9" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="56" t="s">
+        <v>264</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="56"/>
+      <c r="B11" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K11" s="31"/>
+    </row>
+    <row r="12" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K12" s="28" t="str">
+        <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/core-marketo-concepts/miscellaneous/notification-types.html","Notification Types")</f>
+        <v>Notification Types</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="56"/>
+      <c r="B13" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K13" s="28" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K14" s="28" t="str">
+        <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/reporting/basic-reporting/report-subscriptions/subscribe-to-a-smart-list.html","Subscribe to a Smart List")</f>
+        <v>Subscribe to a Smart List</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="50" t="s">
+        <v>272</v>
+      </c>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+    </row>
+    <row r="17" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="H17" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="I17" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="J17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="59.1" customHeight="1">
-      <c r="A9" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" ht="68.099999999999994" customHeight="1">
-      <c r="A10" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="84.95" customHeight="1">
-      <c r="A11" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="47.1" customHeight="1">
-      <c r="A12" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="42.95" customHeight="1">
-      <c r="A13" s="58" t="s">
-        <v>409</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="84" customHeight="1">
-      <c r="A14" s="58"/>
-      <c r="B14" s="13" t="s">
-        <v>411</v>
-      </c>
+      <c r="K17" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="56" t="s">
+        <v>273</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K18" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="L18" s="21"/>
+    </row>
+    <row r="19" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="56"/>
+      <c r="B19" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K19" s="28"/>
+      <c r="L19" s="21"/>
+    </row>
+    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="56" t="s">
+        <v>277</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K20" s="28" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="56"/>
+      <c r="B21" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="K21" s="28" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="56"/>
+      <c r="B22" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="K22" s="28" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="56"/>
+      <c r="B23" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="K23" s="28" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="56" t="s">
+        <v>286</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K24" s="28" t="str">
+        <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/core-marketo-concepts/smart-campaigns/creating-a-smart-campaign/understanding-batch-and-trigger-smart-campaigns.html?lang=en#batch-campaign","Batch Campaign")</f>
+        <v>Batch Campaign</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="56"/>
+      <c r="B25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K25" s="32"/>
+    </row>
+    <row r="26" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="56" t="s">
+        <v>289</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="56"/>
+      <c r="B27" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K27" s="32"/>
+    </row>
+    <row r="28" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="56"/>
+      <c r="B28" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K28" s="28" t="str">
+        <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/core-marketo-concepts/smart-campaigns/creating-a-smart-campaign/understanding-batch-and-trigger-smart-campaigns.html?lang=en#trigger-campaign","Trigger Campaign")</f>
+        <v>Trigger Campaign</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="56" t="s">
+        <v>292</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K29" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="L29" s="21"/>
+    </row>
+    <row r="30" spans="1:12" ht="123.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="56"/>
+      <c r="B30" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K30" s="33"/>
+      <c r="L30" s="21"/>
+    </row>
+    <row r="31" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="56" t="s">
+        <v>296</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="K31" s="28" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="56"/>
+      <c r="B32" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="K32" s="28" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="56"/>
+      <c r="B33" s="13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="56"/>
+      <c r="B34" s="13" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="56"/>
+      <c r="B35" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="K35" s="28" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="56"/>
+      <c r="B36" s="13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="56"/>
+      <c r="B37" s="13" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="50" t="s">
+        <v>307</v>
+      </c>
+      <c r="B39" s="51"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+    </row>
+    <row r="40" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="56" t="s">
+        <v>308</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K41" s="28" t="str">
+        <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/getting-started-with-marketo/quick-wins/simple-scoring.html","Simple Scoring")</f>
+        <v>Simple Scoring</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="56"/>
+      <c r="B42" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K42" s="32"/>
+    </row>
+    <row r="43" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K43" s="32"/>
+    </row>
+    <row r="44" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K44" s="32"/>
+    </row>
+    <row r="45" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K45" s="28" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K46" s="28" t="str">
+        <f>HYPERLINK("https://business.adobe.com/resources/ebooks/the-gdpr-and-the-marketer.html","The GDPR and The Marketer: A Practical Guide for the Marketo Customer")</f>
+        <v>The GDPR and The Marketer: A Practical Guide for the Marketo Customer</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="56" t="s">
+        <v>320</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K47" s="31"/>
+    </row>
+    <row r="48" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="56"/>
+      <c r="B48" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K48" s="31"/>
+    </row>
+    <row r="49" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K49" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="L49" s="21"/>
+    </row>
+    <row r="50" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A50" s="56"/>
+      <c r="B50" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K50" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="L50" s="21"/>
+    </row>
+    <row r="51" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="56"/>
+      <c r="B51" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K51" s="33"/>
+      <c r="L51" s="21"/>
+    </row>
+    <row r="52" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K52" s="28" t="str">
+        <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo-learn/tutorials/lead-and-data-management/subscription-center-watch.html","How to set up and manage a subscription center")</f>
+        <v>How to set up and manage a subscription center</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K53" s="28" t="s">
+        <v>333</v>
+      </c>
+      <c r="L53" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A13:A14"/>
+  <mergeCells count="15">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A39:K39"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{0D164A62-F0EE-8E45-B846-5CF83F1D1895}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{2BF04E9C-9EAB-E54D-854E-D25E99B17194}">
       <formula1>"Low (0-4 hours), Medium (4.5-15 hours), High (15+ hours)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{5D21EAD6-EC0A-9C44-942E-7767DBF480CF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{969F4BC1-5714-604D-80E9-A398F29EBDD1}">
       <formula1>"Complete, In Progress, Not Started"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{7D63BEFC-7591-8746-8A44-B52581BD797B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{7CB1A39C-AB65-F043-AB0A-6C5C1E3C1E8E}">
       <formula1>"High, Medium, Low"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="K3" r:id="rId1" location="naming-schemes" xr:uid="{42A9D17C-F980-9E47-8A3E-F9A07F1C4C3D}"/>
+    <hyperlink ref="K5" r:id="rId2" xr:uid="{CCCDCCB9-C090-214F-94A1-232717DB0C2C}"/>
+    <hyperlink ref="K18" r:id="rId3" xr:uid="{166A0D2E-B874-614E-AE33-E180B5FBD561}"/>
+    <hyperlink ref="K29" r:id="rId4" xr:uid="{686CEB82-F690-D84E-86C4-EAB2E53791AE}"/>
+    <hyperlink ref="K53" r:id="rId5" xr:uid="{97540944-A353-A041-A6A1-4FA06321B50C}"/>
+    <hyperlink ref="K49" r:id="rId6" xr:uid="{B1766D2C-C815-4F40-9652-41625B2D686C}"/>
+    <hyperlink ref="K6" r:id="rId7" xr:uid="{44AB5349-636D-C048-A5E0-90765A832462}"/>
+    <hyperlink ref="K7" r:id="rId8" xr:uid="{932A0865-FF4A-0642-912B-65C29EF670EF}"/>
+    <hyperlink ref="K9" r:id="rId9" xr:uid="{66472174-EB2A-E648-8119-C9A603E5A6D7}"/>
+    <hyperlink ref="K10" r:id="rId10" location="archive-a-folder" xr:uid="{D1C49980-0818-9B4F-B018-237EF074E1DC}"/>
+    <hyperlink ref="K13" r:id="rId11" location="subscribe-to-notifications" xr:uid="{2B6EC325-01F8-9341-B567-455AA5F0B5CE}"/>
+    <hyperlink ref="K20" r:id="rId12" xr:uid="{218FFB9E-44B9-0148-ABA1-6538E2FFFDD1}"/>
+    <hyperlink ref="K21" r:id="rId13" xr:uid="{46185568-63DC-0B47-9D2E-1E29EBCE625C}"/>
+    <hyperlink ref="K22" r:id="rId14" xr:uid="{0592E870-A61B-3141-B426-B7DE353F93C7}"/>
+    <hyperlink ref="K23" r:id="rId15" xr:uid="{CA334251-33FD-2E45-9340-E02409C6874A}"/>
+    <hyperlink ref="K31" r:id="rId16" xr:uid="{98272C3F-3853-054A-A67B-74583E0CA39F}"/>
+    <hyperlink ref="K32" r:id="rId17" xr:uid="{64B1E2E4-62BA-A948-962A-45FF16BEB479}"/>
+    <hyperlink ref="K35" r:id="rId18" xr:uid="{24EBABC6-ED98-5145-8F1D-77B09941A049}"/>
+    <hyperlink ref="K45" r:id="rId19" xr:uid="{D6F04A87-3D93-1045-9821-4A8DE8A855A9}"/>
+    <hyperlink ref="K50" r:id="rId20" xr:uid="{59311813-81C6-7943-8406-8FB8A3521146}"/>
+    <hyperlink ref="K8" r:id="rId21" location="acquisition-program" xr:uid="{61B557C7-5BD8-504C-BBDB-D84CF884AEC8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03A5A23-9879-4B07-BF0C-0360B64E3753}">
+  <dimension ref="A1:J53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.85546875" customWidth="1"/>
+    <col min="3" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="64" t="s">
+        <v>433</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>391</v>
+      </c>
+      <c r="C2" s="67" t="s">
+        <v>392</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="67" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="68" t="s">
+        <v>434</v>
+      </c>
+      <c r="B3" s="69" t="s">
+        <v>505</v>
+      </c>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="69"/>
+    </row>
+    <row r="4" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="68"/>
+      <c r="B4" s="69" t="s">
+        <v>435</v>
+      </c>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="70"/>
+    </row>
+    <row r="5" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="68"/>
+      <c r="B5" s="69" t="s">
+        <v>506</v>
+      </c>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="69"/>
+    </row>
+    <row r="6" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="B6" s="69" t="s">
+        <v>437</v>
+      </c>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="70"/>
+    </row>
+    <row r="7" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="68" t="s">
+        <v>438</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>439</v>
+      </c>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="71" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="68"/>
+      <c r="B8" s="69" t="s">
+        <v>441</v>
+      </c>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="70"/>
+    </row>
+    <row r="9" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="68" t="s">
+        <v>442</v>
+      </c>
+      <c r="B9" s="69" t="s">
+        <v>507</v>
+      </c>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="70"/>
+    </row>
+    <row r="10" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+      <c r="A10" s="68"/>
+      <c r="B10" s="69" t="s">
+        <v>508</v>
+      </c>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="70" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="68"/>
+      <c r="B11" s="69" t="s">
+        <v>509</v>
+      </c>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="70" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="68"/>
+      <c r="B12" s="69" t="s">
+        <v>445</v>
+      </c>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="25"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="70"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="64" t="s">
+        <v>446</v>
+      </c>
+      <c r="B14" s="65"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="58" t="s">
+        <v>391</v>
+      </c>
+      <c r="C15" s="67" t="s">
+        <v>392</v>
+      </c>
+      <c r="D15" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="67" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="68" t="s">
+        <v>510</v>
+      </c>
+      <c r="B16" s="62" t="s">
+        <v>511</v>
+      </c>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="70"/>
+    </row>
+    <row r="17" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="68"/>
+      <c r="B17" s="69" t="s">
+        <v>447</v>
+      </c>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="70"/>
+    </row>
+    <row r="18" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="68"/>
+      <c r="B18" s="69" t="s">
+        <v>448</v>
+      </c>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="70"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="68"/>
+      <c r="B19" s="72" t="s">
+        <v>449</v>
+      </c>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="70" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="68"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="70" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="20"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="70"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="B22" s="65"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="58" t="s">
+        <v>391</v>
+      </c>
+      <c r="C23" s="67" t="s">
+        <v>392</v>
+      </c>
+      <c r="D23" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="67" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="68" t="s">
+        <v>365</v>
+      </c>
+      <c r="B24" s="69" t="s">
+        <v>453</v>
+      </c>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="70"/>
+    </row>
+    <row r="25" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="68"/>
+      <c r="B25" s="69" t="s">
+        <v>454</v>
+      </c>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="70"/>
+    </row>
+    <row r="26" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="68"/>
+      <c r="B26" s="69" t="s">
+        <v>455</v>
+      </c>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="70" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="68"/>
+      <c r="B27" s="72" t="s">
+        <v>457</v>
+      </c>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="70" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="68"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="70" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="68" t="s">
+        <v>460</v>
+      </c>
+      <c r="B29" s="69" t="s">
+        <v>512</v>
+      </c>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="70" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="68"/>
+      <c r="B30" s="69" t="s">
+        <v>513</v>
+      </c>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="70"/>
+    </row>
+    <row r="31" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="68"/>
+      <c r="B31" s="69" t="s">
+        <v>461</v>
+      </c>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="70"/>
+    </row>
+    <row r="32" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="68"/>
+      <c r="B32" s="69" t="s">
+        <v>462</v>
+      </c>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="70" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A33" s="68"/>
+      <c r="B33" s="69" t="s">
+        <v>464</v>
+      </c>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="70"/>
+    </row>
+    <row r="34" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="68" t="s">
+        <v>465</v>
+      </c>
+      <c r="B34" s="73" t="s">
+        <v>466</v>
+      </c>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="70"/>
+    </row>
+    <row r="35" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="68"/>
+      <c r="B35" s="73" t="s">
+        <v>467</v>
+      </c>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="70" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="68"/>
+      <c r="B36" s="73" t="s">
+        <v>469</v>
+      </c>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="70"/>
+    </row>
+    <row r="37" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="68"/>
+      <c r="B37" s="73" t="s">
+        <v>470</v>
+      </c>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="70" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="68"/>
+      <c r="B38" s="72" t="s">
+        <v>472</v>
+      </c>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="70" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="68"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="70" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="68" t="s">
+        <v>475</v>
+      </c>
+      <c r="B40" s="73" t="s">
+        <v>476</v>
+      </c>
+      <c r="C40" s="61"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="61"/>
+      <c r="J40" s="70" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="68"/>
+      <c r="B41" s="73" t="s">
+        <v>477</v>
+      </c>
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="61"/>
+      <c r="J41" s="70" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="68" t="s">
+        <v>479</v>
+      </c>
+      <c r="B42" s="72" t="s">
+        <v>480</v>
+      </c>
+      <c r="C42" s="63"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="70" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="68"/>
+      <c r="B43" s="72"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="70" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A44" s="68"/>
+      <c r="B44" s="73" t="s">
+        <v>482</v>
+      </c>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="61"/>
+      <c r="J44" s="70" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="20"/>
+      <c r="B45" s="69"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="61"/>
+      <c r="J45" s="70"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="64" t="s">
+        <v>483</v>
+      </c>
+      <c r="B46" s="65"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="66"/>
+      <c r="I46" s="66"/>
+      <c r="J46" s="66"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="58" t="s">
+        <v>391</v>
+      </c>
+      <c r="C47" s="67" t="s">
+        <v>392</v>
+      </c>
+      <c r="D47" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="F47" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="G47" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="67" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="20" t="s">
+        <v>484</v>
+      </c>
+      <c r="B48" s="69" t="s">
+        <v>485</v>
+      </c>
+      <c r="C48" s="61"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="61"/>
+      <c r="H48" s="61"/>
+      <c r="I48" s="61"/>
+      <c r="J48" s="70" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="68" t="s">
+        <v>486</v>
+      </c>
+      <c r="B49" s="69" t="s">
+        <v>487</v>
+      </c>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="70" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="68"/>
+      <c r="B50" s="69" t="s">
+        <v>488</v>
+      </c>
+      <c r="C50" s="61"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="61"/>
+      <c r="I50" s="61"/>
+      <c r="J50" s="70" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="56" t="s">
+        <v>490</v>
+      </c>
+      <c r="B51" s="69" t="s">
+        <v>491</v>
+      </c>
+      <c r="C51" s="61"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="61"/>
+      <c r="G51" s="61"/>
+      <c r="H51" s="61"/>
+      <c r="I51" s="61"/>
+      <c r="J51" s="70" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="56"/>
+      <c r="B52" s="72" t="s">
+        <v>492</v>
+      </c>
+      <c r="C52" s="63"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="63"/>
+      <c r="H52" s="63"/>
+      <c r="I52" s="63"/>
+      <c r="J52" s="70" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="56"/>
+      <c r="B53" s="72"/>
+      <c r="C53" s="63"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="63"/>
+      <c r="J53" s="70" t="s">
+        <v>494</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="51">
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F7 F13:F19 F21:F27 F29:F38 F40:F42 F44:F52" xr:uid="{7E8A8F21-FFA3-47FD-91C5-54CE173E17E4}">
+      <formula1>"Low (0-4 hours), Medium (4.5-15 hours), High (15+ hours)"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G7 G13:G19 G21:G27 G29:G38 G40:G42 G44:G52" xr:uid="{55CFA2F6-2A81-4033-A4D6-8B8750978C57}">
+      <formula1>"Complete, In Progress, Not Started"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E7 E13:E19 E21:E27 E29:E38 E40:E42 E44:E52" xr:uid="{70D32152-D0C4-40CF-9078-4BA7B303B44F}">
+      <formula1>"High, Medium, Low"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="J48" r:id="rId1" xr:uid="{614B7F43-8A4B-40AE-AE31-F5CD219AA289}"/>
+    <hyperlink ref="J35" r:id="rId2" xr:uid="{376967F3-0DE1-4A69-A75F-7FEA02B0E0B1}"/>
+    <hyperlink ref="J7" r:id="rId3" xr:uid="{D84A4898-558E-4CC0-924E-BE4F1F285D00}"/>
+    <hyperlink ref="J11" r:id="rId4" xr:uid="{51BFD538-5920-4F9B-9915-A2FB46B2C2F7}"/>
+    <hyperlink ref="J10" r:id="rId5" xr:uid="{A7911BC3-8373-43B0-9A05-6622C7BA91AA}"/>
+    <hyperlink ref="J19" r:id="rId6" xr:uid="{9CA49F29-788E-48E8-A816-7B13CF6DE6DF}"/>
+    <hyperlink ref="J20" r:id="rId7" xr:uid="{202E7191-2591-4EBE-97EB-F8EF07FCF73E}"/>
+    <hyperlink ref="J26" r:id="rId8" xr:uid="{A860E338-A085-4B50-BED6-F47AC4494CBD}"/>
+    <hyperlink ref="J27" r:id="rId9" xr:uid="{E021C63C-25A4-49D6-8A36-D55739E9A166}"/>
+    <hyperlink ref="J28" r:id="rId10" xr:uid="{57F32F33-4D1C-430F-B0C4-72ABA29C86D3}"/>
+    <hyperlink ref="J29" r:id="rId11" xr:uid="{BE5B49D2-9890-4A59-8C19-F0E34CD73E2A}"/>
+    <hyperlink ref="J32" r:id="rId12" xr:uid="{A9521EC9-6253-4CFC-B2C1-F72E871A2F03}"/>
+    <hyperlink ref="J37" r:id="rId13" xr:uid="{AAC64840-01D8-4BF8-8A50-80EDCE46568F}"/>
+    <hyperlink ref="J38" r:id="rId14" xr:uid="{2A5A14B1-0BA4-4772-AD62-CD6C6BBA7D79}"/>
+    <hyperlink ref="J39" r:id="rId15" xr:uid="{1EEC344F-6001-47F5-9384-4E7CA465BE53}"/>
+    <hyperlink ref="J40" r:id="rId16" xr:uid="{C1A1B23D-7B97-42DF-AE6C-54702C88E9AE}"/>
+    <hyperlink ref="J41" r:id="rId17" xr:uid="{D121C36F-2A70-405D-9898-E64EE74B2A99}"/>
+    <hyperlink ref="J42" r:id="rId18" xr:uid="{F1C7BFB3-71BF-4108-A1E9-99E7AEFD5316}"/>
+    <hyperlink ref="J44" r:id="rId19" xr:uid="{1CEB4FA0-F52B-4EBB-99E4-626D568D0E6A}"/>
+    <hyperlink ref="J49" r:id="rId20" xr:uid="{42D6469A-935D-4808-BC8A-CFE4D25D4CED}"/>
+    <hyperlink ref="J50" r:id="rId21" xr:uid="{E1EC6B80-C524-4E01-9977-2EDAB073856F}"/>
+    <hyperlink ref="J51" r:id="rId22" xr:uid="{4ACA40F3-5291-4305-B5DB-F9AF644114DE}"/>
+    <hyperlink ref="J52" r:id="rId23" xr:uid="{2A86CF8D-A185-4A6B-BD64-08E7E141595F}"/>
+    <hyperlink ref="J53" r:id="rId24" xr:uid="{A06C01CE-7C8C-4EC5-8D02-775761D45FBD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E54D5E-781F-42E3-AF44-FFB733CB0D67}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="64" t="s">
+        <v>386</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>391</v>
+      </c>
+      <c r="C2" s="67" t="s">
+        <v>392</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="67" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="68" t="s">
+        <v>514</v>
+      </c>
+      <c r="B3" s="69" t="s">
+        <v>515</v>
+      </c>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="70" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="68"/>
+      <c r="B4" s="69" t="s">
+        <v>516</v>
+      </c>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="70" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
+        <v>518</v>
+      </c>
+      <c r="B5" s="69" t="s">
+        <v>519</v>
+      </c>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="20"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="74"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="65"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="67" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="75" t="s">
+        <v>520</v>
+      </c>
+      <c r="B9" s="69" t="s">
+        <v>521</v>
+      </c>
+      <c r="C9" s="76"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="78" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="75"/>
+      <c r="B10" s="69" t="s">
+        <v>523</v>
+      </c>
+      <c r="C10" s="76"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="71" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="B11" s="69" t="s">
+        <v>525</v>
+      </c>
+      <c r="C11" s="76"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="71" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="76"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="71"/>
+    </row>
+    <row r="13" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="75"/>
+      <c r="B13" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="76"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="71"/>
+    </row>
+    <row r="14" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
+        <v>387</v>
+      </c>
+      <c r="B14" s="69" t="s">
+        <v>527</v>
+      </c>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="70" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="B15" s="69" t="s">
+        <v>529</v>
+      </c>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="69"/>
+    </row>
+    <row r="16" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="68" t="s">
+        <v>389</v>
+      </c>
+      <c r="B16" s="69" t="s">
+        <v>530</v>
+      </c>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+    </row>
+    <row r="17" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" s="68"/>
+      <c r="B17" s="60" t="s">
+        <v>531</v>
+      </c>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A17"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D17" xr:uid="{1F550668-3490-4926-B82C-88FC94CA4326}">
+      <formula1>"High, Medium, Low"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F17" xr:uid="{2DA07E09-799C-40B8-8FA0-67273F51E689}">
+      <formula1>"Complete, In Progress, Not Started"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E17" xr:uid="{FF42C343-7E54-4912-B0F2-0C570158D0E4}">
+      <formula1>"Low (0-4 hours), Medium (4.5-15 hours), High (15+ hours)"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="I3" r:id="rId1" location="_blank" xr:uid="{3A0EC66E-7E84-4B07-80CC-59B559A444D2}"/>
+    <hyperlink ref="I4" r:id="rId2" xr:uid="{40AF1298-0FD5-4051-BBF5-5C98EE882CA1}"/>
+    <hyperlink ref="I9" r:id="rId3" xr:uid="{E2CBF747-DECD-4AD9-AFEE-B6CC597CF869}"/>
+    <hyperlink ref="I10" r:id="rId4" xr:uid="{E62947A0-CE65-4584-A1F6-E716F12D54D4}"/>
+    <hyperlink ref="I11" r:id="rId5" xr:uid="{A3241352-6C0C-4E85-892D-777F44D955E5}"/>
+    <hyperlink ref="I14" r:id="rId6" xr:uid="{0D35E4FB-A673-43EE-B1BB-D9421FE5357F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002AB93A25AFF156439850881F6A1EFB06" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="711c0aa484f22afeba0d38fa96483f3a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="42202dc8-22a4-46a3-a8c9-17b1c003c0dc" xmlns:ns3="d449adc5-a023-4a4e-b2f3-92dafbd76c81" xmlns:ns4="beb3ccd9-9cf9-40a9-923c-79c44a00fd08" xmlns:ns5="33fb364f-eb7c-4bb9-b0b8-427e41e01e9c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a2ced39c2ab41a51ac713b216d2129f6" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="42202dc8-22a4-46a3-a8c9-17b1c003c0dc"/>
@@ -6122,15 +8745,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -6176,13 +8790,43 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BA50067-5D0F-44CD-A2A0-83523A68FFE5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28DD1AE0-EF0B-44F4-A43C-99503C6C3FFA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28DD1AE0-EF0B-44F4-A43C-99503C6C3FFA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BA50067-5D0F-44CD-A2A0-83523A68FFE5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="42202dc8-22a4-46a3-a8c9-17b1c003c0dc"/>
+    <ds:schemaRef ds:uri="d449adc5-a023-4a4e-b2f3-92dafbd76c81"/>
+    <ds:schemaRef ds:uri="beb3ccd9-9cf9-40a9-923c-79c44a00fd08"/>
+    <ds:schemaRef ds:uri="33fb364f-eb7c-4bb9-b0b8-427e41e01e9c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92E375F1-38D8-42E2-8E03-ACB507462803}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92E375F1-38D8-42E2-8E03-ACB507462803}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="beb3ccd9-9cf9-40a9-923c-79c44a00fd08"/>
+    <ds:schemaRef ds:uri="33fb364f-eb7c-4bb9-b0b8-427e41e01e9c"/>
+    <ds:schemaRef ds:uri="d449adc5-a023-4a4e-b2f3-92dafbd76c81"/>
+    <ds:schemaRef ds:uri="42202dc8-22a4-46a3-a8c9-17b1c003c0dc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>